--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="notify_send_setting" sheetId="18" r:id="rId2"/>
+    <sheet name="NOTIFY_SEND_SETTING" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -21,9 +21,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1930,38 +1927,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_send_setting</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>retry_count</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_send_instantly</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_manual_retry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#code</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>forgetPassword</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2002,10 +1967,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>fd_level</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>addUser</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2015,6 +1976,42 @@
   </si>
   <si>
     <t>modifyPassword</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY_SEND_SETTING</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_COUNT</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_SEND_INSTANTLY</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_MANUAL_RETRY</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2022,7 +2019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2732,14 +2729,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="29" t="s">
         <v>0</v>
@@ -2750,12 +2747,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="28" t="s">
         <v>1</v>
@@ -2767,7 +2764,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="31" t="s">
         <v>3</v>
@@ -2783,17 +2780,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2810,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="173.25">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2860,17 +2857,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="132.75">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -2881,26 +2878,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5">
       <c r="C19" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +2913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -2924,7 +2921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2932,10 +2929,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -2944,7 +2941,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -2953,7 +2950,7 @@
       </c>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -2979,63 +2976,64 @@
   <dimension ref="D7:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12">
       <c r="E8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3047,21 +3045,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:12">
       <c r="E9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3073,21 +3071,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:12">
       <c r="E10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3099,21 +3097,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:12">
       <c r="E11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3128,5 +3126,6 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="NOTIFY_SEND_SETTING" sheetId="18" r:id="rId2"/>
+    <sheet name="NOTIFY_TEMPLATE" sheetId="19" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -2012,13 +2013,60 @@
   </si>
   <si>
     <t>IS_MANUAL_RETRY</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY_TEMPLATE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>IS_PREDEFINED</t>
+  </si>
+  <si>
+    <t>BUSINESS_TYPE</t>
+  </si>
+  <si>
+    <t>PM_TITLE</t>
+  </si>
+  <si>
+    <t>PM_CONTENT</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>msg定时任务</t>
+  </si>
+  <si>
+    <t>addFunction</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;定时任务上线了&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>#MESSAGE_TYPE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2279,7 +2327,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2378,6 +2426,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2975,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3128,4 +3179,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:17">
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="Q8" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -2040,26 +2040,85 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>msg定时任务</t>
-  </si>
-  <si>
     <t>addFunction</t>
   </si>
   <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;定时任务上线了&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>#MESSAGE_TYPE</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用项目站内信</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用项目站内信</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProjMsg</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrgMsg</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrgMsg</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用组织站内信</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用组织站内信</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织启用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织停用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目停用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被停用。&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>enableProjMsg</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2412,6 +2471,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2426,9 +2488,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2789,11 +2848,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -2805,22 +2864,22 @@
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -2942,11 +3001,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
@@ -2987,19 +3046,19 @@
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="18" t="s">
@@ -3183,19 +3242,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q8"/>
+  <dimension ref="D7:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17">
@@ -3212,7 +3273,7 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
         <v>69</v>
@@ -3232,31 +3293,110 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -2040,9 +2040,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>addFunction</t>
-  </si>
-  <si>
     <t>#MESSAGE_TYPE</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2055,10 +2052,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>addFunction</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>启用项目站内信</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2119,6 +2112,26 @@
   </si>
   <si>
     <t>enableProjMsg</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织或者项目的状态发生变化，例如创建、启用、停用。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启/停用项目/组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeState</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeState</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3083,17 +3096,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L11"/>
+  <dimension ref="D7:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
     <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
@@ -3230,6 +3243,32 @@
         <v>1</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
@@ -3244,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3254,7 +3293,7 @@
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3273,7 +3312,7 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
         <v>69</v>
@@ -3293,25 +3332,25 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O8" s="28"/>
       <c r="Q8" s="28"/>
@@ -3321,25 +3360,25 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="4:17">
@@ -3347,25 +3386,25 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="4:17">
@@ -3373,25 +3412,25 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -2052,34 +2052,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>启用项目站内信</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用项目站内信</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProjMsg</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrgMsg</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrgMsg</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用组织站内信</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用组织站内信</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>组织启用</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2111,27 +2083,168 @@
     <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
   </si>
   <si>
-    <t>enableProjMsg</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织或者项目的状态发生变化，例如创建、启用、停用。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>启/停用项目/组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeState</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeState</t>
+    <t>停用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员停用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员启用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员启用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+  </si>
+  <si>
+    <t>forgetPassword-preset</t>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>modifyPassword</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyPassword-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证邮件</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>添加新功能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新功能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${content}</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3096,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L12"/>
+  <dimension ref="D7:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3248,19 +3361,19 @@
     </row>
     <row r="12" spans="4:12">
       <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3269,6 +3382,84 @@
         <v>1</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
@@ -3281,21 +3472,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q11"/>
+  <dimension ref="D7:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="F14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="109.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17">
@@ -3332,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
         <v>74</v>
@@ -3344,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O8" s="28"/>
       <c r="Q8" s="28"/>
@@ -3360,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>75</v>
@@ -3372,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="4:17">
@@ -3386,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
         <v>74</v>
@@ -3398,13 +3589,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="4:17">
@@ -3412,10 +3603,10 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
@@ -3424,13 +3615,117 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2208,10 +2208,6 @@
     <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>添加新功能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>停用组织</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2236,15 +2232,19 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>添加新功能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>${content}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3211,7 +3211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3474,8 +3474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="F14:K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3580,7 +3580,7 @@
         <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
         <v>74</v>
@@ -3632,7 +3632,7 @@
         <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
@@ -3647,7 +3647,7 @@
         <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="4:17">
@@ -3658,7 +3658,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
         <v>101</v>
@@ -3681,25 +3681,25 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
         <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="4:17">

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1944,14 +1944,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>添加/导入新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加或导入新用户时，新用户收到自己的账户信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>添加新功能</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2245,6 +2237,14 @@
   </si>
   <si>
     <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3211,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3228,31 +3228,31 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>63</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -3283,16 +3283,16 @@
     </row>
     <row r="9" spans="4:12">
       <c r="E9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -3309,16 +3309,16 @@
     </row>
     <row r="10" spans="4:12">
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
@@ -3335,16 +3335,16 @@
     </row>
     <row r="11" spans="4:12">
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -3361,19 +3361,19 @@
     </row>
     <row r="12" spans="4:12">
       <c r="E12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="13" spans="4:12">
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
@@ -3413,16 +3413,16 @@
     </row>
     <row r="14" spans="4:12">
       <c r="E14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -3439,16 +3439,16 @@
     </row>
     <row r="15" spans="4:12">
       <c r="E15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -3474,7 +3474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3491,31 +3491,31 @@
   <sheetData>
     <row r="7" spans="4:17">
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>68</v>
       </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="4:17">
@@ -3523,25 +3523,25 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O8" s="28"/>
       <c r="Q8" s="28"/>
@@ -3551,25 +3551,25 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:17">
@@ -3577,25 +3577,25 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="4:17">
@@ -3603,25 +3603,25 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="4:17">
@@ -3629,25 +3629,25 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="4:17">
@@ -3655,25 +3655,25 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="4:17">
@@ -3681,25 +3681,25 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="4:17">
@@ -3707,25 +3707,25 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_work\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19428" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -2096,162 +2096,196 @@
   </si>
   <si>
     <t>enableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员停用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员启用项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员启用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>modifyPassword</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyPassword-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableProject-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证邮件</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${content}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证吧进行验证</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>enableOrganization</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>disableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员停用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员启用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员启用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword</t>
-  </si>
-  <si>
-    <t>forgetPassword-preset</t>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>modifyPassword</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyPassword-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>验证邮件</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>${content}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加/导入新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2965,14 +2999,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -2988,7 +3022,7 @@
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3000,7 +3034,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3046,7 +3080,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3082,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3103,7 +3137,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3186,7 +3220,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3209,21 +3243,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L15"/>
+  <dimension ref="D7:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
@@ -3289,10 +3323,10 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -3361,16 +3395,16 @@
     </row>
     <row r="12" spans="4:12">
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -3387,16 +3421,16 @@
     </row>
     <row r="13" spans="4:12">
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
         <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
@@ -3413,16 +3447,16 @@
     </row>
     <row r="14" spans="4:12">
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -3439,16 +3473,16 @@
     </row>
     <row r="15" spans="4:12">
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -3460,6 +3494,32 @@
         <v>1</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
@@ -3472,21 +3532,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q15"/>
+  <dimension ref="D7:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="109.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17">
@@ -3523,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>84</v>
@@ -3535,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
         <v>76</v>
@@ -3551,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>83</v>
@@ -3563,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
         <v>77</v>
@@ -3577,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -3589,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>75</v>
@@ -3603,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>85</v>
@@ -3615,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
@@ -3629,10 +3690,10 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
@@ -3641,13 +3702,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="4:17">
@@ -3655,25 +3716,25 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="4:17">
@@ -3681,25 +3742,25 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
         <v>119</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="4:17">
@@ -3707,25 +3768,51 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17">
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -2245,14 +2248,98 @@
   </si>
   <si>
     <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueCreate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSolve</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueAssignee</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSolve</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题创建</t>
+    <rPh sb="0" eb="1">
+      <t>wen t</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang jian</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分配</t>
+    <rPh sb="0" eb="1">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen pei</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决</t>
+    <rPh sb="0" eb="1">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+    <rPh sb="5" eb="6">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2367,6 +2454,20 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2504,12 +2605,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="34">
@@ -2616,9 +2747,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2965,14 +3106,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -2983,12 +3124,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3000,7 +3141,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3016,17 +3157,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3037,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3187,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3071,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3093,17 +3234,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3114,26 +3255,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3141,7 +3282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3149,7 +3290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3157,7 +3298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3165,10 +3306,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3177,7 +3318,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3186,7 +3327,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3209,24 +3350,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L15"/>
+  <dimension ref="D7:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3255,7 +3396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3281,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3307,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:12">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3333,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:12">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:12">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>90</v>
       </c>
@@ -3385,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:12">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>91</v>
       </c>
@@ -3411,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:12">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>88</v>
       </c>
@@ -3437,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>89</v>
       </c>
@@ -3460,6 +3601,84 @@
         <v>1</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3697,18 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="109.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3518,7 +3737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3546,7 +3765,7 @@
       <c r="O8" s="28"/>
       <c r="Q8" s="28"/>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3572,7 +3791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3598,7 +3817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3624,7 +3843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3650,7 +3869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3676,7 +3895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3702,7 +3921,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>8</v>
       </c>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -2279,6 +2279,18 @@
   </si>
   <si>
     <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL_TITLE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3532,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q16"/>
+  <dimension ref="D7:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3546,11 +3558,12 @@
     <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3573,13 +3586,16 @@
         <v>68</v>
       </c>
       <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3598,16 +3614,16 @@
       <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="Q8" s="28"/>
-    </row>
-    <row r="9" spans="4:17">
+      <c r="P8" s="28"/>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3626,14 +3642,14 @@
       <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3652,14 +3668,14 @@
       <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3678,14 +3694,14 @@
       <c r="J11" t="s">
         <v>131</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3704,14 +3720,14 @@
       <c r="J12" t="s">
         <v>102</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>103</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3730,14 +3746,14 @@
       <c r="J13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>98</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3756,14 +3772,14 @@
       <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>121</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
@@ -3783,13 +3799,16 @@
         <v>95</v>
       </c>
       <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
         <v>110</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>
@@ -3809,9 +3828,12 @@
         <v>134</v>
       </c>
       <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
         <v>132</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>133</v>
       </c>
     </row>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_work\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19428" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2250,10 +2253,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册组织，发送邮箱验证吧进行验证</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2279,6 +2278,10 @@
   </si>
   <si>
     <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证进行验证</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2286,7 +2289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2999,14 +3002,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3017,12 +3020,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3034,7 +3037,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3050,17 +3053,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3080,7 +3083,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="156">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
+    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3127,17 +3130,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="126.6">
+    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3148,26 +3151,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3199,10 +3202,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3211,7 +3214,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3220,7 +3223,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="31.2">
+    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3245,22 +3248,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
-    <col min="5" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:12">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:12">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:12">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>89</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:12">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:12">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>87</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>88</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:12">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -3508,10 +3511,10 @@
         <v>126</v>
       </c>
       <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
         <v>127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3534,23 +3537,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3607,7 +3610,7 @@
       <c r="O8" s="28"/>
       <c r="Q8" s="28"/>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
@@ -3685,7 +3688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3763,12 +3766,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>101</v>
@@ -3789,12 +3792,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
@@ -3806,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
         <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_work\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19428" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -2253,6 +2250,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>用户注册组织，发送邮箱验证吧进行验证</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>site</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2281,7 +2282,15 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册组织，发送邮箱验证进行验证</t>
+    <t>EMAIL_TITLE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2289,7 +2298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3002,14 +3011,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3020,12 +3029,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3037,7 +3046,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3053,17 +3062,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3074,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3083,7 +3092,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3130,17 +3139,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3151,26 +3160,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3178,7 +3187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3202,10 +3211,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3214,7 +3223,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3223,7 +3232,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3248,22 +3257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:12">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3344,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:12">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:12">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3396,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:12">
       <c r="E12" t="s">
         <v>89</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:12">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:12">
       <c r="E14" t="s">
         <v>87</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:12">
       <c r="E15" t="s">
         <v>88</v>
       </c>
@@ -3500,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:12">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -3511,10 +3520,10 @@
         <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3535,25 +3544,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q16"/>
+  <dimension ref="D7:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3576,13 +3586,16 @@
         <v>68</v>
       </c>
       <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3601,16 +3614,16 @@
       <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="Q8" s="28"/>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="28"/>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3629,14 +3642,14 @@
       <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3655,14 +3668,14 @@
       <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3679,16 +3692,16 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3707,14 +3720,14 @@
       <c r="J12" t="s">
         <v>102</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>103</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3733,14 +3746,14 @@
       <c r="J13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>98</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3759,19 +3772,19 @@
       <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>121</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>101</v>
@@ -3786,18 +3799,21 @@
         <v>95</v>
       </c>
       <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
         <v>110</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
@@ -3809,13 +3825,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
         <v>132</v>
+      </c>
+      <c r="M16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_work\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19428" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2250,10 +2253,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册组织，发送邮箱验证吧进行验证</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2291,6 +2290,10 @@
   </si>
   <si>
     <t>choerodon</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证进行验证</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2298,7 +2301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3011,14 +3014,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3029,12 +3032,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3046,7 +3049,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3062,17 +3065,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="156">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
+    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3139,17 +3142,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="126.6">
+    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3160,26 +3163,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3211,10 +3214,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3223,7 +3226,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3232,7 +3235,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="31.2">
+    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3257,22 +3260,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
-    <col min="5" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:12">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:12">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:12">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>89</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:12">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:12">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>87</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>88</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:12">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -3520,10 +3523,10 @@
         <v>126</v>
       </c>
       <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
         <v>127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3546,24 +3549,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -3595,7 +3598,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3623,7 +3626,7 @@
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -3701,7 +3704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3779,12 +3782,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>101</v>
@@ -3799,7 +3802,7 @@
         <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
         <v>110</v>
@@ -3808,12 +3811,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
@@ -3825,16 +3828,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
         <v>132</v>
-      </c>
-      <c r="M16" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF799D49-1812-4675-AAAB-ADBFE28180BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -2078,10 +2079,6 @@
     <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
   </si>
   <si>
-    <t>site</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>停用项目</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2253,10 +2250,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>site</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>forgetPassword-preset</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2294,14 +2287,26 @@
   </si>
   <si>
     <t>用户注册组织，发送邮箱验证进行验证</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ALLOW_CONFIG</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2666,7 +2671,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3007,21 +3012,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3032,12 +3037,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3049,7 +3054,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3065,17 +3070,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3095,7 +3100,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="173.25">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3142,17 +3147,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="132.75">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3163,26 +3168,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3214,10 +3219,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3231,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3235,7 +3240,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3257,25 +3262,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:13">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3303,8 +3309,11 @@
       <c r="L7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3329,8 +3338,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3338,13 +3350,13 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
         <v>122</v>
       </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3355,8 +3367,11 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3381,8 +3396,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3407,22 +3425,25 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13">
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3433,22 +3454,25 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13">
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3459,22 +3483,25 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13">
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3485,22 +3512,25 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13">
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3511,22 +3541,25 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13">
       <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3536,6 +3569,9 @@
       </c>
       <c r="L16">
         <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3546,27 +3582,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:R16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3589,7 +3625,7 @@
         <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -3598,15 +3634,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
@@ -3615,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
         <v>76</v>
@@ -3626,15 +3662,15 @@
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>73</v>
@@ -3643,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
         <v>77</v>
@@ -3652,15 +3688,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -3669,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -3678,15 +3714,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
         <v>73</v>
@@ -3695,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -3704,15 +3740,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
@@ -3721,123 +3757,123 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
         <v>102</v>
       </c>
-      <c r="L12" t="s">
-        <v>103</v>
-      </c>
       <c r="M12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="s">
         <v>110</v>
       </c>
-      <c r="M15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF799D49-1812-4675-AAAB-ADBFE28180BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -2299,14 +2298,86 @@
   </si>
   <si>
     <t>project</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueCreate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题创建</t>
+    <rPh sb="0" eb="1">
+      <t>wen t</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang jian</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+    <rPh sb="5" eb="6">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueAssignee</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分配</t>
+    <rPh sb="0" eb="1">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen pei</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSolve</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决</t>
+    <rPh sb="0" eb="1">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2671,7 +2742,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3012,21 +3083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3037,12 +3108,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3054,7 +3125,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3070,17 +3141,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3091,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3100,7 +3171,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3114,7 +3185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3136,7 +3207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3147,17 +3218,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3168,26 +3239,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3195,7 +3266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3203,7 +3274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3211,7 +3282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3219,10 +3290,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3231,7 +3302,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3311,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3262,26 +3333,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3313,7 +3384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3342,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3371,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3400,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3429,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>88</v>
       </c>
@@ -3458,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>89</v>
       </c>
@@ -3487,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>86</v>
       </c>
@@ -3516,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>87</v>
       </c>
@@ -3545,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>124</v>
       </c>
@@ -3572,6 +3643,93 @@
       </c>
       <c r="M16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3582,27 +3740,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3634,7 +3792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3662,7 +3820,7 @@
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3688,7 +3846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3714,7 +3872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3740,7 +3898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3766,7 +3924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3792,7 +3950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3818,7 +3976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>8</v>
       </c>
@@ -3847,7 +4005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>9</v>
       </c>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/notify-service/src/main/resources/script/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B7272-5C5D-4D5B-AE2B-CF435963CCB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="21000" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -2298,86 +2299,14 @@
   </si>
   <si>
     <t>project</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueCreate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题创建</t>
-    <rPh sb="0" eb="1">
-      <t>wen t</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuang jian</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题创建，给相关用户发送通知</t>
-    <rPh sb="5" eb="6">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiang guan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fa song</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tong zhi</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueAssignee</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题分配</t>
-    <rPh sb="0" eb="1">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen pei</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题分配，给相关用户发送通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueSolve</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题已解决</t>
-    <rPh sb="0" eb="1">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi jing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie jue</t>
-    </rPh>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题已解决，给相关用户发送通知</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2742,7 +2671,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3083,21 +3012,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3108,12 +3037,12 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="29" t="s">
         <v>1</v>
@@ -3125,7 +3054,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -3141,17 +3070,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3162,7 +3091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3171,7 +3100,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="173.25">
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -3196,7 +3125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3218,17 +3147,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="132.75">
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
@@ -3239,26 +3168,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5">
       <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3266,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3274,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3282,7 +3211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -3290,10 +3219,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
       <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
@@ -3302,7 +3231,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -3311,7 +3240,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="18" t="s">
         <v>41</v>
       </c>
@@ -3333,26 +3262,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:13">
       <c r="D7" t="s">
         <v>55</v>
       </c>
@@ -3384,7 +3313,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:13">
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -3413,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:13">
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -3442,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:13">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:13">
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -3500,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:13">
       <c r="E12" t="s">
         <v>88</v>
       </c>
@@ -3529,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:13">
       <c r="E13" t="s">
         <v>89</v>
       </c>
@@ -3558,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:13">
       <c r="E14" t="s">
         <v>86</v>
       </c>
@@ -3587,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:13">
       <c r="E15" t="s">
         <v>87</v>
       </c>
@@ -3616,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:13">
       <c r="E16" t="s">
         <v>124</v>
       </c>
@@ -3645,25 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
+    <row r="17" spans="11:13">
       <c r="K17">
         <v>1</v>
       </c>
@@ -3674,25 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
+    <row r="18" spans="11:13">
       <c r="K18">
         <v>1</v>
       </c>
@@ -3703,25 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
+    <row r="19" spans="11:13">
       <c r="K19">
         <v>1</v>
       </c>
@@ -3740,27 +3615,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="109.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
@@ -3820,7 +3695,7 @@
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
@@ -3846,7 +3721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
@@ -3872,7 +3747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3898,7 +3773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
@@ -3924,7 +3799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
@@ -3950,7 +3825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
@@ -3976,7 +3851,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
@@ -4005,7 +3880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B7272-5C5D-4D5B-AE2B-CF435963CCB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B42BEE-F145-4F51-A3BA-357AC49AD1E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="21000" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:M19"/>
+  <dimension ref="D7:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:J19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3574,39 +3574,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:13">
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13">
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13">
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,7 +3586,7 @@
   <dimension ref="D7:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B42BEE-F145-4F51-A3BA-357AC49AD1E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987A569-F5D8-47C9-83CD-4740EF58DA38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="21000" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="21000" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -2184,85 +2184,107 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>验证邮件</t>
+    <t>停用组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>${content}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入新用户</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册组织</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL_TITLE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证进行验证</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ALLOW_CONFIG</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon验证邮件</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>${content}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加/导入新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证邮件</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -2270,35 +2292,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL_TITLE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册组织，发送邮箱验证进行验证</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ALLOW_CONFIG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
+    <t>EMAIL_CONTENT</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3265,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3310,7 +3304,7 @@
         <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="4:13">
@@ -3350,13 +3344,13 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3443,7 +3437,7 @@
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3472,7 +3466,7 @@
         <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3501,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3530,7 +3524,7 @@
         <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3547,16 +3541,16 @@
     </row>
     <row r="16" spans="4:13">
       <c r="E16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
         <v>123</v>
       </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -3585,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3600,6 +3594,7 @@
     <col min="11" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="109.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="134.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
@@ -3625,13 +3620,16 @@
         <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
       </c>
       <c r="M7" t="s">
         <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="4:18">
@@ -3696,7 +3694,7 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -3731,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -3748,7 +3746,7 @@
         <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
@@ -3763,7 +3761,7 @@
         <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="4:18">
@@ -3774,7 +3772,7 @@
         <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
@@ -3797,25 +3795,25 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="4:18">
@@ -3823,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>100</v>
@@ -3840,11 +3838,8 @@
       <c r="K15" t="s">
         <v>133</v>
       </c>
-      <c r="L15" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" t="s">
-        <v>110</v>
+      <c r="N15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="4:18">
@@ -3852,10 +3847,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
         <v>108</v>
@@ -3864,16 +3859,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987A569-F5D8-47C9-83CD-4740EF58DA38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="21000" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,27 +15,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -59,7 +45,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -71,7 +57,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -89,7 +75,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -107,7 +93,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -125,7 +111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -135,7 +121,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -153,7 +139,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -172,7 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -190,7 +176,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -201,7 +187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -219,7 +205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -237,7 +223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -258,7 +244,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -278,7 +264,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -298,7 +284,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -318,7 +304,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -338,7 +324,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -349,7 +335,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -367,7 +353,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -378,7 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -396,7 +382,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -414,7 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -432,7 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -450,7 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -497,7 +483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -515,7 +501,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -533,7 +519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -551,7 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -562,7 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -580,7 +566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -598,7 +584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -617,7 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -635,7 +621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -654,7 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -672,7 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -683,7 +669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -701,7 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -719,7 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -742,7 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -760,7 +746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -778,7 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -796,7 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -814,7 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -825,7 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -843,7 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -853,7 +839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -873,7 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -883,7 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -901,7 +887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -919,7 +905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -942,7 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -960,7 +946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -979,7 +965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -998,7 +984,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1017,7 +1003,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1037,7 +1023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1056,7 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1090,7 +1076,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1110,7 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1121,7 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1139,7 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1154,6 +1140,101 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于引用外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可用于普通值
+目前不支持特别复杂的公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动增长列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果被公式引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最好写一个人可以读懂的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强公式可读性</t>
+    </r>
+  </si>
+  <si>
     <t>关于公式的说明</t>
   </si>
   <si>
@@ -1162,7 +1243,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1180,7 +1261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1198,7 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1216,7 +1297,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1234,7 +1315,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1249,7 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1258,7 +1339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1276,7 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1291,7 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1300,7 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1318,7 +1399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1332,7 +1413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1350,7 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1368,7 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1387,7 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1410,7 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1428,7 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1446,7 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1465,7 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1485,7 +1566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1495,7 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1504,7 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1515,7 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1533,7 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1551,7 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1569,7 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1588,7 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1606,7 +1687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1624,7 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1643,7 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1661,7 +1742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1679,7 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1697,7 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1716,7 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1727,7 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1737,7 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1746,7 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1757,7 +1838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1775,7 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1786,7 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1804,7 +1885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1823,204 +1904,142 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于引用外键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也可用于普通值
-目前不支持特别复杂的公式</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动增长列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果被公式引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最好写一个人可以读懂的值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增强公式可读性</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>NOTIFY_SEND_SETTING</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>RETRY_COUNT</t>
+  </si>
+  <si>
+    <t>IS_SEND_INSTANTLY</t>
+  </si>
+  <si>
+    <t>IS_MANUAL_RETRY</t>
+  </si>
+  <si>
+    <t>IS_ALLOW_CONFIG</t>
   </si>
   <si>
     <t>forgetPassword</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>忘记密码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>用户触发忘记密码，发送验证邮件。(LDAP用户不允许重置密码)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>site</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>管理员添加/导入新用户</t>
+  </si>
+  <si>
+    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>addFunction</t>
   </si>
   <si>
     <t>添加新功能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>系统添加新功能时，给用户发送新功能的介绍和操作指南</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyPassword</t>
   </si>
   <si>
     <t>修改密码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>用户在平台修改密码后反馈密码修改成功的通知，确认是否是用户的操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyPassword</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTIFY_SEND_SETTING</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>RETRY_COUNT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_SEND_INSTANTLY</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_MANUAL_RETRY</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject</t>
+  </si>
+  <si>
+    <t>启用项目</t>
+  </si>
+  <si>
+    <t>管理员启用项目</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>disableProject</t>
+  </si>
+  <si>
+    <t>停用项目</t>
+  </si>
+  <si>
+    <t>管理员停用项目</t>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+  </si>
+  <si>
+    <t>启用组织</t>
+  </si>
+  <si>
+    <t>管理员启用组织</t>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+  </si>
+  <si>
+    <t>停用组织</t>
+  </si>
+  <si>
+    <t>管理员停用组织</t>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+  </si>
+  <si>
+    <t>注册组织</t>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证进行验证</t>
+  </si>
+  <si>
+    <t>systemNotification</t>
+  </si>
+  <si>
+    <t>系统公告</t>
   </si>
   <si>
     <t>NOTIFY_TEMPLATE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
+  </si>
+  <si>
+    <t>#MESSAGE_TYPE</t>
   </si>
   <si>
     <t>IS_PREDEFINED</t>
@@ -2029,281 +2048,128 @@
     <t>BUSINESS_TYPE</t>
   </si>
   <si>
+    <t>EMAIL_TITLE</t>
+  </si>
+  <si>
     <t>PM_TITLE</t>
   </si>
   <si>
     <t>PM_CONTENT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MESSAGE_TYPE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL_CONTENT</t>
+  </si>
+  <si>
+    <t>enableProject-preset</t>
   </si>
   <si>
     <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>disableProject-preset</t>
+  </si>
+  <si>
+    <t>项目停用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>disableOrganization-preset</t>
+  </si>
+  <si>
+    <t>组织停用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被停用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>enableOrganization-preset</t>
   </si>
   <si>
     <t>组织启用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织停用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目启用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目停用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被停用。&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>停用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员停用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员启用项目</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员启用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword</t>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser-preset</t>
+  </si>
+  <si>
+    <t>添加新用户</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>modifyPassword-preset</t>
   </si>
   <si>
     <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>modifyPassword</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyPassword-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableProject-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunction-preset</t>
+  </si>
+  <si>
+    <t>系统通知</t>
+  </si>
+  <si>
+    <t>${content}</t>
+  </si>
+  <si>
+    <t>forgetPassword-preset</t>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>addFunction-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>${content}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加/导入新用户</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册组织</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon验证邮件</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>registerOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL_TITLE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册组织，发送邮箱验证进行验证</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ALLOW_CONFIG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon验证邮件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL_CONTENT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemNotification-preset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2318,14 +2184,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2341,33 +2207,166 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2385,13 +2384,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2402,23 +2401,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2449,8 +2436,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2462,28 +2635,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2508,12 +2665,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2522,13 +2688,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2543,6 +2707,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2551,12 +2724,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -2564,111 +2979,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2741,9 +3203,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3001,327 +3460,329 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="C1" s="30" t="s">
+    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+      <c r="A1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="48.95" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="173.25">
-      <c r="C9" s="11" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
-      <c r="C10" s="13" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="9" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
-      <c r="C12" s="9" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" ht="132.75">
-      <c r="C15" s="14" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24"/>
+    </row>
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="33" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.5">
-      <c r="C27" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I8" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13">
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3336,21 +3797,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3365,21 +3826,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3394,21 +3855,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3423,21 +3884,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3452,21 +3913,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3481,21 +3942,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3510,21 +3971,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3539,21 +4000,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3568,151 +4029,180 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="5:13">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="109.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="134.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="22.8583333333333" customWidth="1"/>
+    <col min="10" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="109.375" customWidth="1"/>
+    <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="28"/>
-      <c r="R8" s="28"/>
-    </row>
-    <row r="9" spans="4:18">
+        <v>97</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11">
         <v>4</v>
       </c>
@@ -3720,59 +4210,59 @@
         <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
@@ -3781,96 +4271,122 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
         <v>113</v>
       </c>
-      <c r="L14" t="s">
-        <v>118</v>
-      </c>
       <c r="M14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="987" activeTab="1"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <r>
       <rPr>
@@ -2036,6 +2036,18 @@
     <t>系统公告</t>
   </si>
   <si>
+    <t>系统全平台公告</t>
+  </si>
+  <si>
+    <t>organizationNotification</t>
+  </si>
+  <si>
+    <t>组织公告</t>
+  </si>
+  <si>
+    <t>组织层公告</t>
+  </si>
+  <si>
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
@@ -2142,6 +2154,9 @@
   </si>
   <si>
     <t>systemNotification-preset</t>
+  </si>
+  <si>
+    <t>organizationNotification-preset</t>
   </si>
 </sst>
 </file>
@@ -2150,9 +2165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2219,11 +2234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2231,30 +2245,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2270,6 +2260,22 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2290,14 +2296,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2319,14 +2326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2340,9 +2340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,14 +2372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,7 +2453,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,13 +2537,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,43 +2597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,13 +2621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,91 +2633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2725,6 +2740,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2749,35 +2779,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2797,6 +2803,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2811,17 +2837,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2830,10 +2845,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2842,133 +2857,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3717,17 +3732,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:M17"/>
+  <dimension ref="D7:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="6" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="32.75" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
@@ -4040,7 +4056,7 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
         <v>57</v>
@@ -4055,6 +4071,35 @@
         <v>1</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
     </row>
@@ -4068,10 +4113,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:R17"/>
+  <dimension ref="D7:R18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4089,7 +4134,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4101,25 +4146,25 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="5:18">
@@ -4127,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4142,10 +4187,10 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
@@ -4155,13 +4200,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4170,10 +4215,10 @@
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -4181,13 +4226,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
         <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4196,10 +4241,10 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -4207,13 +4252,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4222,10 +4267,10 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="5:13">
@@ -4233,13 +4278,13 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4248,10 +4293,10 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="5:13">
@@ -4259,13 +4304,13 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4277,7 +4322,7 @@
         <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="5:13">
@@ -4285,13 +4330,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4300,10 +4345,10 @@
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="5:14">
@@ -4311,13 +4356,13 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4326,10 +4371,10 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="5:14">
@@ -4337,13 +4382,13 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4352,10 +4397,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -4363,13 +4408,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4381,7 +4426,33 @@
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4294B-6C6A-44B7-8509-B1A57FDD7E5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7860" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,14 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -45,7 +51,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -57,7 +63,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -75,7 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -93,7 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -111,7 +117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -121,7 +127,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -139,7 +145,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -158,7 +164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -176,7 +182,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -187,7 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -205,7 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -223,7 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -244,7 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -264,7 +270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -284,7 +290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -304,7 +310,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -324,7 +330,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -335,7 +341,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -353,7 +359,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -364,7 +370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -382,7 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -400,7 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -418,7 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -436,7 +442,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -483,7 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -501,7 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -519,7 +525,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -537,7 +543,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -548,7 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -566,7 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -584,7 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -603,7 +609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -621,7 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -640,7 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -658,7 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -669,7 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -687,7 +693,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -705,7 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -728,7 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -746,7 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -764,7 +770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -782,7 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -800,7 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -811,7 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -829,7 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -839,7 +845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -859,7 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -869,7 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -887,7 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -905,7 +911,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -928,7 +934,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -946,7 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -965,7 +971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -984,7 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1003,7 +1009,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1023,7 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1042,7 +1048,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1076,7 +1082,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1096,7 +1102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1107,7 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1125,7 +1131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1145,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1163,6 +1170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1175,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1193,6 +1202,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1211,6 +1221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1229,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1243,7 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1261,7 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1279,7 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1297,7 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1315,7 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1330,7 +1342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1339,7 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1357,7 +1369,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1372,7 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1381,7 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1399,7 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1413,7 +1425,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1431,7 +1443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1449,7 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1468,7 +1480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1491,7 +1503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1509,7 +1521,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1527,7 +1539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1546,7 +1558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1566,7 +1578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1576,7 +1588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1585,7 +1597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1596,7 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1614,7 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1632,7 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1650,7 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1669,7 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1687,7 +1699,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1705,7 +1717,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1724,7 +1736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1742,7 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1760,7 +1772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1778,7 +1790,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1797,7 +1809,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1808,7 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1818,7 +1830,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1827,7 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1838,7 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1856,7 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1867,7 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1885,7 +1897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1904,7 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2157,19 +2169,72 @@
   </si>
   <si>
     <t>organizationNotification-preset</t>
+  </si>
+  <si>
+    <t>平台任务状态通知</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织任务状态通知</t>
+  </si>
+  <si>
+    <t>项目任务状态通知</t>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusSite</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusSite-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusProject-preset</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态变更通知</t>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务状态发生变化，给相关用户发送通知。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2180,7 +2245,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2199,14 +2264,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2224,164 +2289,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2399,13 +2313,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2417,10 +2331,22 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2451,194 +2377,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2739,254 +2479,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -2997,155 +2495,108 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3218,6 +2669,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3475,267 +2929,266 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="48.95" customHeight="1" spans="1:7">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="21" t="s">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="173.25">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="1:8" ht="204.75">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:8" ht="47.25">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="26" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="132.75">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="32" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="19" t="s">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.5">
+      <c r="C27" s="28" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3784,7 +3237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="4:13">
       <c r="E8" t="s">
         <v>54</v>
       </c>
@@ -3813,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="4:13">
       <c r="E9" t="s">
         <v>58</v>
       </c>
@@ -3842,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="4:13">
       <c r="E10" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="4:13">
       <c r="E11" t="s">
         <v>65</v>
       </c>
@@ -3900,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="4:13">
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -3929,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="4:13">
       <c r="E13" t="s">
         <v>72</v>
       </c>
@@ -3958,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="4:13">
       <c r="E14" t="s">
         <v>75</v>
       </c>
@@ -3987,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:13">
+    <row r="15" spans="4:13">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -4016,9 +3469,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="4:13">
       <c r="E16" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -4103,20 +3556,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="5:13">
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4125,14 +3664,14 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
     <col min="10" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="109.375" customWidth="1"/>
     <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>90</v>
       </c>
@@ -4167,7 +3706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
@@ -4195,7 +3734,7 @@
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
@@ -4221,7 +3760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
@@ -4247,7 +3786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
@@ -4273,7 +3812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
@@ -4299,7 +3838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
@@ -4325,7 +3864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
@@ -4351,7 +3890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
@@ -4377,7 +3916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>
@@ -4455,9 +3994,87 @@
         <v>118</v>
       </c>
     </row>
+    <row r="19" spans="5:13">
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4294B-6C6A-44B7-8509-B1A57FDD7E5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7860" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,14 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -51,7 +45,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -63,7 +57,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -81,7 +75,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -99,7 +93,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -117,7 +111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -127,7 +121,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -145,7 +139,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -164,7 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -182,7 +176,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -193,7 +187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -211,7 +205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -229,7 +223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -250,7 +244,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -270,7 +264,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -290,7 +284,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -310,7 +304,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -330,7 +324,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -341,7 +335,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -359,7 +353,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -370,7 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -388,7 +382,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -406,7 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -424,7 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -442,7 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -489,7 +483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -507,7 +501,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -525,7 +519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -543,7 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -554,7 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -572,7 +566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -590,7 +584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -609,7 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -627,7 +621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -646,7 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -664,7 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -675,7 +669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -693,7 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -711,7 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -734,7 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -752,7 +746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -770,7 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -788,7 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -806,7 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -817,7 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -835,7 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -845,7 +839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -865,7 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -875,7 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -893,7 +887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -911,7 +905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -934,7 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -952,7 +946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -971,7 +965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -990,7 +984,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1009,7 +1003,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1029,7 +1023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1048,7 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1082,7 +1076,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1102,7 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1113,7 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1131,7 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1151,7 +1145,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1170,7 +1163,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1183,7 +1175,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1202,7 +1193,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1221,7 +1211,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1240,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1255,7 +1243,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1273,7 +1261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1291,7 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1309,7 +1297,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1327,7 +1315,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1342,7 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1351,7 +1339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1369,7 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1384,7 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1393,7 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1411,7 +1399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1425,7 +1413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1443,7 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1461,7 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1480,7 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1503,7 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1521,7 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1539,7 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1558,7 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1578,7 +1566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1588,7 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1597,7 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1608,7 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1626,7 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1644,7 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1662,7 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1681,7 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1699,7 +1687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1717,7 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1736,7 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1754,7 +1742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1772,7 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1790,7 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1809,7 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1820,7 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1830,7 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1839,7 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1850,7 +1838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1868,7 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1879,7 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1897,7 +1885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1916,7 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2060,6 +2048,36 @@
     <t>组织层公告</t>
   </si>
   <si>
+    <t>jobStatusSite</t>
+  </si>
+  <si>
+    <t>平台任务状态通知</t>
+  </si>
+  <si>
+    <t>定时任务状态发生变化，给相关用户发送通知。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+  </si>
+  <si>
+    <t>组织任务状态通知</t>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
+    <t>项目任务状态通知</t>
+  </si>
+  <si>
+    <t>resetOrganizationUserPassword</t>
+  </si>
+  <si>
+    <t>组织重置用户密码</t>
+  </si>
+  <si>
+    <t>组织重置用户密码，给相关用户发送通知</t>
+  </si>
+  <si>
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
@@ -2171,70 +2189,35 @@
     <t>organizationNotification-preset</t>
   </si>
   <si>
-    <t>平台任务状态通知</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织任务状态通知</t>
-  </si>
-  <si>
-    <t>项目任务状态通知</t>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusSite</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusOrganization</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>jobStatusSite-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态变更通知</t>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
   </si>
   <si>
     <t>jobStatusOrganization-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>jobStatusProject-preset</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务状态变更通知</t>
-  </si>
-  <si>
-    <t>${jobName}状态发生变更</t>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务状态发生变化，给相关用户发送通知。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2245,7 +2228,20 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2259,19 +2255,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2289,13 +2272,164 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2313,13 +2447,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2331,22 +2465,10 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2377,8 +2499,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2390,12 +2698,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2420,6 +2744,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2428,26 +2765,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2462,15 +2779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2479,13 +2787,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="34">
@@ -2495,108 +3042,154 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2670,9 +3263,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2682,7 +3272,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="363636"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2929,279 +3519,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.622222222222" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" ht="63.95" customHeight="1" spans="1:8">
       <c r="A1" s="4"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" ht="48.95" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" ht="36" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="11" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="14" t="s">
+    <row r="8" ht="18" spans="3:5">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="173.25">
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" ht="180" spans="3:6">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
-      <c r="C10" s="20" t="s">
+    <row r="10" ht="216" spans="3:5">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="14" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
-      <c r="C12" s="14" t="s">
+    <row r="12" ht="54" spans="3:5">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="132.75">
-      <c r="C15" s="22" t="s">
+    <row r="13" ht="18" spans="3:5">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" ht="18" spans="3:5">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" ht="126" spans="3:5">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="10" t="s">
+    <row r="18" ht="18" spans="3:4">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" ht="18" spans="3:5">
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="25" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="25" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="25" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="25" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="27" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="15" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.5">
-      <c r="C27" s="28" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="36" spans="3:3">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="5.74814814814815" customWidth="1"/>
+    <col min="4" max="4" width="16.1259259259259" customWidth="1"/>
+    <col min="5" max="5" width="22.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="20.1259259259259" customWidth="1"/>
+    <col min="7" max="7" width="17.6222222222222" customWidth="1"/>
+    <col min="8" max="8" width="32.7481481481481" customWidth="1"/>
+    <col min="10" max="10" width="14.8740740740741" customWidth="1"/>
+    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
+    <col min="12" max="12" width="14.6222222222222" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3237,7 +3828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
         <v>58</v>
       </c>
@@ -3295,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
         <v>62</v>
       </c>
@@ -3324,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>65</v>
       </c>
@@ -3353,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -3382,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
         <v>72</v>
       </c>
@@ -3411,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="5:13">
       <c r="E14" t="s">
         <v>75</v>
       </c>
@@ -3440,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="5:13">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -3469,9 +4060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3558,19 +4149,19 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3587,16 +4178,16 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -3616,16 +4207,16 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
         <v>71</v>
@@ -3643,37 +4234,67 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="5:13">
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.87407407407407" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="109.375" customWidth="1"/>
-    <col min="14" max="14" width="134.625" customWidth="1"/>
+    <col min="4" max="4" width="18.8740740740741" customWidth="1"/>
+    <col min="6" max="6" width="26.6222222222222" customWidth="1"/>
+    <col min="7" max="7" width="16.1259259259259" customWidth="1"/>
+    <col min="8" max="8" width="15.5037037037037" customWidth="1"/>
+    <col min="9" max="9" width="22.8740740740741" customWidth="1"/>
+    <col min="10" max="11" width="20.1259259259259" customWidth="1"/>
+    <col min="12" max="12" width="11.6222222222222" customWidth="1"/>
+    <col min="13" max="13" width="109.377777777778" customWidth="1"/>
+    <col min="14" max="14" width="134.622222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -3685,39 +4306,39 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3726,26 +4347,26 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:13">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3754,24 +4375,24 @@
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3780,24 +4401,24 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3806,24 +4427,24 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3832,24 +4453,24 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3861,21 +4482,21 @@
         <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3884,24 +4505,24 @@
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3910,24 +4531,24 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3936,10 +4557,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -3947,13 +4568,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3965,7 +4586,7 @@
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -3973,13 +4594,13 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3991,7 +4612,7 @@
         <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -3999,25 +4620,25 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
         <v>139</v>
       </c>
-      <c r="H19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>140</v>
-      </c>
-      <c r="M19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -4025,25 +4646,25 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>140</v>
-      </c>
-      <c r="M20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -4051,30 +4672,30 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" t="s">
         <v>138</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
         <v>139</v>
       </c>
-      <c r="H21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>140</v>
       </c>
-      <c r="M21" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05FB93-1056-4BCC-9344-523B6C9AEB8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,14 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -45,7 +51,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -57,7 +63,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -75,7 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -93,7 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -111,7 +117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -121,7 +127,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -139,7 +145,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -158,7 +164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -176,7 +182,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -187,7 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -205,7 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -223,7 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -244,7 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -264,7 +270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -284,7 +290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -304,7 +310,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -324,7 +330,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -335,7 +341,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -353,7 +359,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -364,7 +370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -382,7 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -400,7 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -418,7 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -436,7 +442,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -483,7 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -501,7 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -519,7 +525,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -537,7 +543,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -548,7 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -566,7 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -584,7 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -603,7 +609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -621,7 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -640,7 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -658,7 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -669,7 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -687,7 +693,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -705,7 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -728,7 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -746,7 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -764,7 +770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -782,7 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -800,7 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -811,7 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -829,7 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -839,7 +845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -859,7 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -869,7 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -887,7 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -905,7 +911,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -928,7 +934,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -946,7 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -965,7 +971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -984,7 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1003,7 +1009,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1023,7 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1042,7 +1048,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1076,7 +1082,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1096,7 +1102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1107,7 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1125,7 +1131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1145,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1163,6 +1170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1175,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1193,6 +1202,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1211,6 +1221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1229,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1243,7 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1261,7 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1279,7 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1297,7 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1315,7 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1330,7 +1342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1339,7 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1357,7 +1369,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1372,7 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1381,7 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1399,7 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1413,7 +1425,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1431,7 +1443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1449,7 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1468,7 +1480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1491,7 +1503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1509,7 +1521,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1527,7 +1539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1546,7 +1558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1566,7 +1578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1576,7 +1588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1585,7 +1597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1596,7 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1614,7 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1632,7 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1650,7 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1669,7 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1687,7 +1699,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1705,7 +1717,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1724,7 +1736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1742,7 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1760,7 +1772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1778,7 +1790,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1797,7 +1809,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1808,7 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1818,7 +1830,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1827,7 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1838,7 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1856,7 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1867,7 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1885,7 +1897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1904,7 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2180,44 +2192,78 @@
     <t>registerOrganization-preset</t>
   </si>
   <si>
+    <t>systemNotification-preset</t>
+  </si>
+  <si>
+    <t>organizationNotification-preset</t>
+  </si>
+  <si>
+    <t>jobStatusSite-preset</t>
+  </si>
+  <si>
+    <t>任务状态变更通知</t>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization-preset</t>
+  </si>
+  <si>
+    <t>jobStatusProject-preset</t>
+  </si>
+  <si>
+    <t>事务实例失败通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>当事务实例失败时，向触发者发送消息提醒。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagaInstanceFail</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务实例失败</t>
+  </si>
+  <si>
+    <t>sagaInstanceFail-preset</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务实例失败</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>systemNotification-preset</t>
-  </si>
-  <si>
-    <t>organizationNotification-preset</t>
-  </si>
-  <si>
-    <t>jobStatusSite-preset</t>
-  </si>
-  <si>
-    <t>任务状态变更通知</t>
-  </si>
-  <si>
-    <t>${jobName}状态发生变更</t>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-  </si>
-  <si>
-    <t>jobStatusOrganization-preset</t>
-  </si>
-  <si>
-    <t>jobStatusProject-preset</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发的编号为${sagaInstanceId}的${sagaCode}事务实例运行失败。&lt;/p&gt;&lt;p&gt;点击下方的链接查看详情：${url}&lt;/p&gt;</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2228,20 +2274,20 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2272,164 +2318,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2447,13 +2342,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2465,10 +2360,22 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2499,194 +2406,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2787,255 +2508,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3050,15 +2529,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3090,9 +2560,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3110,9 +2577,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3138,58 +2602,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3263,6 +2701,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3272,7 +2713,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="363636"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3519,280 +2960,279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="100.622222222222" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="48.95" customHeight="1" spans="1:7">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="36" spans="1:7">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="3:5">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="180" spans="3:6">
-      <c r="C9" s="13" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="173.25">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="216" spans="3:5">
-      <c r="C10" s="15" t="s">
+    <row r="10" spans="1:8" ht="204.75">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="3:5">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:8" ht="47.25">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="3:5">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" ht="18" spans="3:5">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" ht="126" spans="3:5">
-      <c r="C15" s="16" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="132.75">
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" ht="18" spans="3:4">
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" ht="18" spans="3:5">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="19" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="21" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="12" t="s">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="22" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.5">
+      <c r="C27" s="18" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.74814814814815" customWidth="1"/>
-    <col min="4" max="4" width="16.1259259259259" customWidth="1"/>
-    <col min="5" max="5" width="22.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="20.1259259259259" customWidth="1"/>
-    <col min="7" max="7" width="17.6222222222222" customWidth="1"/>
-    <col min="8" max="8" width="32.7481481481481" customWidth="1"/>
-    <col min="10" max="10" width="14.8740740740741" customWidth="1"/>
-    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
-    <col min="12" max="12" width="14.6222222222222" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3828,7 +3268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="4:13">
       <c r="E8" t="s">
         <v>54</v>
       </c>
@@ -3857,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="4:13">
       <c r="E9" t="s">
         <v>58</v>
       </c>
@@ -3886,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="4:13">
       <c r="E10" t="s">
         <v>62</v>
       </c>
@@ -3915,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="4:13">
       <c r="E11" t="s">
         <v>65</v>
       </c>
@@ -3944,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="4:13">
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -3973,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="4:13">
       <c r="E13" t="s">
         <v>72</v>
       </c>
@@ -4002,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="4:13">
       <c r="E14" t="s">
         <v>75</v>
       </c>
@@ -4031,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:13">
+    <row r="15" spans="4:13">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -4060,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="4:13">
       <c r="E16" t="s">
         <v>81</v>
       </c>
@@ -4263,36 +3703,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="5:13">
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87407407407407" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.8740740740741" customWidth="1"/>
-    <col min="6" max="6" width="26.6222222222222" customWidth="1"/>
-    <col min="7" max="7" width="16.1259259259259" customWidth="1"/>
-    <col min="8" max="8" width="15.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="22.8740740740741" customWidth="1"/>
-    <col min="10" max="11" width="20.1259259259259" customWidth="1"/>
-    <col min="12" max="12" width="11.6222222222222" customWidth="1"/>
-    <col min="13" max="13" width="109.377777777778" customWidth="1"/>
-    <col min="14" max="14" width="134.622222222222" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="109.375" customWidth="1"/>
+    <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>100</v>
       </c>
@@ -4327,7 +3795,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="4:18">
       <c r="E8">
         <v>1</v>
       </c>
@@ -4355,7 +3823,7 @@
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="4:18">
       <c r="E9">
         <v>2</v>
       </c>
@@ -4381,7 +3849,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="4:18">
       <c r="E10">
         <v>3</v>
       </c>
@@ -4407,7 +3875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="4:18">
       <c r="E11">
         <v>4</v>
       </c>
@@ -4433,7 +3901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="4:18">
       <c r="E12">
         <v>5</v>
       </c>
@@ -4459,7 +3927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="4:18">
       <c r="E13">
         <v>6</v>
       </c>
@@ -4485,7 +3953,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="4:18">
       <c r="E14">
         <v>7</v>
       </c>
@@ -4511,7 +3979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" spans="4:18">
       <c r="E15">
         <v>8</v>
       </c>
@@ -4537,7 +4005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
+    <row r="16" spans="4:18">
       <c r="E16">
         <v>9</v>
       </c>
@@ -4560,7 +4028,7 @@
         <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -4568,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
@@ -4594,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
@@ -4620,10 +4088,10 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
         <v>137</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
       </c>
       <c r="H19" t="s">
         <v>109</v>
@@ -4635,10 +4103,10 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
         <v>139</v>
-      </c>
-      <c r="M19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -4646,10 +4114,10 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s">
         <v>109</v>
@@ -4661,10 +4129,10 @@
         <v>93</v>
       </c>
       <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
         <v>139</v>
-      </c>
-      <c r="M20" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -4672,10 +4140,10 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
         <v>109</v>
@@ -4687,15 +4155,41 @@
         <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M21" t="s">
-        <v>140</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="31.5">
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05FB93-1056-4BCC-9344-523B6C9AEB8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE782EF-8998-4259-A8B3-E83D28812943}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2255,7 +2255,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发的编号为${sagaInstanceId}的${sagaCode}事务实例运行失败。&lt;/p&gt;&lt;p&gt;点击下方的链接查看详情：${url}&lt;/p&gt;</t>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发的编号为${sagaInstanceId}的${sagaCode}事务实例运行失败。&lt;/p&gt;&lt;p&gt;点击下方的链接查看详情：&lt;/p&gt;&lt;p&gt;${url}&lt;/p&gt;</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2602,11 +2602,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2616,12 +2622,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2981,11 +2981,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -2997,22 +2997,22 @@
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -3134,11 +3134,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="15" t="s">
@@ -3179,19 +3179,19 @@
       <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="18" t="s">
@@ -3744,7 +3744,7 @@
   <dimension ref="D7:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4168,7 +4168,7 @@
       <c r="F22" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="29" t="s">
         <v>146</v>
       </c>
       <c r="H22" t="s">
@@ -4183,7 +4183,7 @@
       <c r="L22" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="30" t="s">
         <v>152</v>
       </c>
     </row>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE782EF-8998-4259-A8B3-E83D28812943}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5905D10-217F-414F-9E2F-80EA18FF7A39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2255,7 +2255,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发的编号为${sagaInstanceId}的${sagaCode}事务实例运行失败。&lt;/p&gt;&lt;p&gt;点击下方的链接查看详情：&lt;/p&gt;&lt;p&gt;${url}&lt;/p&gt;</t>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;业务类型:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3744,7 +3744,7 @@
   <dimension ref="D7:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\notify-service\src\main\resources\script\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5905D10-217F-414F-9E2F-80EA18FF7A39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8925" tabRatio="452" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,14 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -51,7 +45,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -63,7 +57,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -81,7 +75,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -99,7 +93,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -117,7 +111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -127,7 +121,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -145,7 +139,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -164,7 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -182,7 +176,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -193,7 +187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -211,7 +205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -229,7 +223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -250,7 +244,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -270,7 +264,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -290,7 +284,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -310,7 +304,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -330,7 +324,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -341,7 +335,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -359,7 +353,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -370,7 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -388,7 +382,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -406,7 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -424,7 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -442,7 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -489,7 +483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -507,7 +501,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -525,7 +519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -543,7 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -554,7 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -572,7 +566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -590,7 +584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -609,7 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -627,7 +621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -646,7 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -664,7 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -675,7 +669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -693,7 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -711,7 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -734,7 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -752,7 +746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -770,7 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -788,7 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -806,7 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -817,7 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -835,7 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -845,7 +839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -865,7 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -875,7 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -893,7 +887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -911,7 +905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -934,7 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -952,7 +946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -971,7 +965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -990,7 +984,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1009,7 +1003,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1029,7 +1023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1048,7 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1082,7 +1076,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1102,7 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1113,7 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1131,7 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1151,7 +1145,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1170,7 +1163,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1183,7 +1175,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1202,7 +1193,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1221,7 +1211,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1240,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1255,7 +1243,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1273,7 +1261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1291,7 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1309,7 +1297,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1327,7 +1315,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1342,7 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1351,7 +1339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1369,7 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1384,7 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1393,7 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1411,7 +1399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1425,7 +1413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1443,7 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1461,7 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1480,7 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1503,7 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1521,7 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1539,7 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1558,7 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1578,7 +1566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1588,7 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1597,7 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1608,7 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1626,7 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1644,7 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1662,7 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1681,7 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1699,7 +1687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1717,7 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1736,7 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1754,7 +1742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1772,7 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1790,7 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1809,7 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1820,7 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1830,7 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1839,7 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1850,7 +1838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1868,7 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1879,7 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1897,7 +1885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1916,7 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2090,6 +2078,15 @@
     <t>组织重置用户密码，给相关用户发送通知</t>
   </si>
   <si>
+    <t>sagaInstanceFail</t>
+  </si>
+  <si>
+    <t>事务实例失败通知</t>
+  </si>
+  <si>
+    <t>当事务实例失败时，向触发者发送消息提醒。</t>
+  </si>
+  <si>
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
@@ -2192,6 +2189,9 @@
     <t>registerOrganization-preset</t>
   </si>
   <si>
+    <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>systemNotification-preset</t>
   </si>
   <si>
@@ -2216,56 +2216,34 @@
     <t>jobStatusProject-preset</t>
   </si>
   <si>
-    <t>事务实例失败通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>当事务实例失败时，向触发者发送消息提醒。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>sagaInstanceFail</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>sagaInstanceFail-preset</t>
   </si>
   <si>
     <t>事务实例失败</t>
   </si>
   <si>
-    <t>sagaInstanceFail-preset</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务实例失败</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;业务类型:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2274,20 +2252,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2300,6 +2265,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2318,13 +2296,164 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2342,13 +2471,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2360,22 +2489,10 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2406,8 +2523,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2419,28 +2722,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2465,12 +2752,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2479,13 +2775,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2500,6 +2794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2508,9 +2811,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2518,10 +3063,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2530,104 +3081,145 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2700,9 +3292,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2960,262 +3549,263 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="32" t="s">
+    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+      <c r="A1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" ht="48.95" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="173.25">
-      <c r="C9" s="10" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
-      <c r="C10" s="12" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="8" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
-      <c r="C12" s="8" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="132.75">
-      <c r="C15" s="13" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="15" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="15" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="15" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="15" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="17" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="9" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.5">
-      <c r="C27" s="18" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3268,7 +3858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
         <v>58</v>
       </c>
@@ -3326,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
         <v>62</v>
       </c>
@@ -3355,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>65</v>
       </c>
@@ -3384,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -3413,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
         <v>72</v>
       </c>
@@ -3442,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="5:13">
       <c r="E14" t="s">
         <v>75</v>
       </c>
@@ -3471,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="5:13">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -3500,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
         <v>81</v>
       </c>
@@ -3705,19 +4295,19 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3733,18 +4323,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3760,9 +4351,9 @@
     <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -3774,39 +4365,39 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3815,26 +4406,26 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="4:18">
+        <v>114</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3843,24 +4434,24 @@
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3869,24 +4460,24 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3895,24 +4486,24 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3921,24 +4512,24 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3950,21 +4541,21 @@
         <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3973,24 +4564,24 @@
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3999,24 +4590,24 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4025,10 +4616,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -4036,13 +4627,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4054,7 +4645,7 @@
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -4062,13 +4653,13 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4080,7 +4671,7 @@
         <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -4088,13 +4679,13 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4103,10 +4694,10 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -4114,13 +4705,13 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4129,10 +4720,10 @@
         <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -4140,13 +4731,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
         <v>141</v>
       </c>
-      <c r="G21" t="s">
-        <v>137</v>
-      </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4155,41 +4746,41 @@
         <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" ht="31.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" ht="31.5" spans="5:13">
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <r>
       <rPr>
@@ -2193,6 +2193,9 @@
   </si>
   <si>
     <t>systemNotification-preset</t>
+  </si>
+  <si>
+    <t>${title}</t>
   </si>
   <si>
     <t>organizationNotification-preset</t>
@@ -2230,9 +2233,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -2302,7 +2305,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2313,30 +2316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,53 +2331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2410,17 +2345,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2442,9 +2383,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2525,7 +2528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,7 +2546,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2549,151 +2630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2706,6 +2649,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2815,45 +2818,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2862,11 +2826,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2887,6 +2849,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2900,162 +2912,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4334,8 +4337,8 @@
   <sheetPr/>
   <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4346,7 +4349,7 @@
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="22.875" customWidth="1"/>
     <col min="10" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="28.625" customWidth="1"/>
     <col min="13" max="13" width="109.375" customWidth="1"/>
     <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
@@ -4642,7 +4645,7 @@
         <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s">
         <v>131</v>
@@ -4653,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
@@ -4679,10 +4682,10 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
         <v>112</v>
@@ -4694,10 +4697,10 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -4705,10 +4708,10 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
         <v>112</v>
@@ -4720,10 +4723,10 @@
         <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -4731,10 +4734,10 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
         <v>112</v>
@@ -4746,10 +4749,10 @@
         <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="5:13">
@@ -4757,10 +4760,10 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
         <v>112</v>
@@ -4772,10 +4775,10 @@
         <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <r>
       <rPr>
@@ -2030,24 +2030,6 @@
     <t>用户注册组织，发送邮箱验证进行验证</t>
   </si>
   <si>
-    <t>systemNotification</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>系统全平台公告</t>
-  </si>
-  <si>
-    <t>organizationNotification</t>
-  </si>
-  <si>
-    <t>组织公告</t>
-  </si>
-  <si>
-    <t>组织层公告</t>
-  </si>
-  <si>
     <t>jobStatusSite</t>
   </si>
   <si>
@@ -2190,15 +2172,6 @@
   </si>
   <si>
     <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>systemNotification-preset</t>
-  </si>
-  <si>
-    <t>${title}</t>
-  </si>
-  <si>
-    <t>organizationNotification-preset</t>
   </si>
   <si>
     <t>jobStatusSite-preset</t>
@@ -2233,9 +2206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -2303,13 +2276,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2324,7 +2290,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,24 +2329,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2383,24 +2366,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2414,19 +2396,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2439,7 +2412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2528,7 +2501,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,13 +2615,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,151 +2681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2815,24 +2788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2848,17 +2803,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2880,6 +2829,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2892,8 +2865,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2917,148 +2890,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3809,10 +3782,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:M23"/>
+  <dimension ref="D7:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4162,7 +4135,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -4182,19 +4155,19 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4211,16 +4184,16 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -4240,19 +4213,19 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
         <v>95</v>
       </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>96</v>
       </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4264,64 +4237,6 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13">
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13">
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
         <v>1</v>
       </c>
     </row>
@@ -4335,10 +4250,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:R22"/>
+  <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4356,7 +4271,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4368,25 +4283,25 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" t="s">
         <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="5:18">
@@ -4394,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4409,10 +4324,10 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2"/>
       <c r="R8" s="2"/>
@@ -4422,13 +4337,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4437,10 +4352,10 @@
         <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -4448,13 +4363,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4463,10 +4378,10 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -4474,13 +4389,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4489,10 +4404,10 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="5:13">
@@ -4500,13 +4415,13 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4515,10 +4430,10 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="5:13">
@@ -4526,13 +4441,13 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4544,7 +4459,7 @@
         <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="5:13">
@@ -4552,13 +4467,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4567,10 +4482,10 @@
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="5:14">
@@ -4578,13 +4493,13 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4593,10 +4508,10 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="5:14">
@@ -4604,13 +4519,13 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4619,24 +4534,24 @@
         <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4645,24 +4560,24 @@
         <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4671,114 +4586,62 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" spans="5:13">
       <c r="E20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13">
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="5:13">
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="1"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <r>
       <rPr>
@@ -1964,193 +1964,187 @@
     <t>organization</t>
   </si>
   <si>
+    <t>modifyPassword</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>用户在平台修改密码后反馈密码修改成功的通知，确认是否是用户的操作</t>
+  </si>
+  <si>
+    <t>enableProject</t>
+  </si>
+  <si>
+    <t>启用项目</t>
+  </si>
+  <si>
+    <t>管理员启用项目</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>disableProject</t>
+  </si>
+  <si>
+    <t>停用项目</t>
+  </si>
+  <si>
+    <t>管理员停用项目</t>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+  </si>
+  <si>
+    <t>启用组织</t>
+  </si>
+  <si>
+    <t>管理员启用组织</t>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+  </si>
+  <si>
+    <t>停用组织</t>
+  </si>
+  <si>
+    <t>管理员停用组织</t>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+  </si>
+  <si>
+    <t>注册组织</t>
+  </si>
+  <si>
+    <t>用户注册组织，发送邮箱验证进行验证</t>
+  </si>
+  <si>
+    <t>jobStatusSite</t>
+  </si>
+  <si>
+    <t>平台任务状态通知</t>
+  </si>
+  <si>
+    <t>定时任务状态发生变化，给相关用户发送通知。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+  </si>
+  <si>
+    <t>组织任务状态通知</t>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
+    <t>项目任务状态通知</t>
+  </si>
+  <si>
+    <t>resetOrganizationUserPassword</t>
+  </si>
+  <si>
+    <t>组织重置用户密码</t>
+  </si>
+  <si>
+    <t>组织重置用户密码，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>sagaInstanceFail</t>
+  </si>
+  <si>
+    <t>事务实例失败通知</t>
+  </si>
+  <si>
+    <t>当事务实例失败时，向触发者发送消息提醒。</t>
+  </si>
+  <si>
+    <t>NOTIFY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>#MESSAGE_TYPE</t>
+  </si>
+  <si>
+    <t>IS_PREDEFINED</t>
+  </si>
+  <si>
+    <t>BUSINESS_TYPE</t>
+  </si>
+  <si>
+    <t>EMAIL_TITLE</t>
+  </si>
+  <si>
+    <t>PM_TITLE</t>
+  </si>
+  <si>
+    <t>PM_CONTENT</t>
+  </si>
+  <si>
+    <t>EMAIL_CONTENT</t>
+  </si>
+  <si>
+    <t>enableProject-preset</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>项目启用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>disableProject-preset</t>
+  </si>
+  <si>
+    <t>项目停用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>disableOrganization-preset</t>
+  </si>
+  <si>
+    <t>组织停用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被停用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>enableOrganization-preset</t>
+  </si>
+  <si>
+    <t>组织启用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>addUser-preset</t>
+  </si>
+  <si>
+    <t>添加新用户</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>modifyPassword-preset</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>addFunction-preset</t>
+  </si>
+  <si>
+    <t>系统通知</t>
+  </si>
+  <si>
     <t>addFunction</t>
-  </si>
-  <si>
-    <t>添加新功能</t>
-  </si>
-  <si>
-    <t>系统添加新功能时，给用户发送新功能的介绍和操作指南</t>
-  </si>
-  <si>
-    <t>modifyPassword</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>用户在平台修改密码后反馈密码修改成功的通知，确认是否是用户的操作</t>
-  </si>
-  <si>
-    <t>enableProject</t>
-  </si>
-  <si>
-    <t>启用项目</t>
-  </si>
-  <si>
-    <t>管理员启用项目</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>disableProject</t>
-  </si>
-  <si>
-    <t>停用项目</t>
-  </si>
-  <si>
-    <t>管理员停用项目</t>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-  </si>
-  <si>
-    <t>启用组织</t>
-  </si>
-  <si>
-    <t>管理员启用组织</t>
-  </si>
-  <si>
-    <t>disableOrganization</t>
-  </si>
-  <si>
-    <t>停用组织</t>
-  </si>
-  <si>
-    <t>管理员停用组织</t>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-  </si>
-  <si>
-    <t>注册组织</t>
-  </si>
-  <si>
-    <t>用户注册组织，发送邮箱验证进行验证</t>
-  </si>
-  <si>
-    <t>jobStatusSite</t>
-  </si>
-  <si>
-    <t>平台任务状态通知</t>
-  </si>
-  <si>
-    <t>定时任务状态发生变化，给相关用户发送通知。</t>
-  </si>
-  <si>
-    <t>jobStatusOrganization</t>
-  </si>
-  <si>
-    <t>组织任务状态通知</t>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>项目任务状态通知</t>
-  </si>
-  <si>
-    <t>resetOrganizationUserPassword</t>
-  </si>
-  <si>
-    <t>组织重置用户密码</t>
-  </si>
-  <si>
-    <t>组织重置用户密码，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>sagaInstanceFail</t>
-  </si>
-  <si>
-    <t>事务实例失败通知</t>
-  </si>
-  <si>
-    <t>当事务实例失败时，向触发者发送消息提醒。</t>
-  </si>
-  <si>
-    <t>NOTIFY_TEMPLATE</t>
-  </si>
-  <si>
-    <t>#MESSAGE_TYPE</t>
-  </si>
-  <si>
-    <t>IS_PREDEFINED</t>
-  </si>
-  <si>
-    <t>BUSINESS_TYPE</t>
-  </si>
-  <si>
-    <t>EMAIL_TITLE</t>
-  </si>
-  <si>
-    <t>PM_TITLE</t>
-  </si>
-  <si>
-    <t>PM_CONTENT</t>
-  </si>
-  <si>
-    <t>EMAIL_CONTENT</t>
-  </si>
-  <si>
-    <t>enableProject-preset</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>项目启用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>disableProject-preset</t>
-  </si>
-  <si>
-    <t>项目停用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>disableOrganization-preset</t>
-  </si>
-  <si>
-    <t>组织停用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被停用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>enableOrganization-preset</t>
-  </si>
-  <si>
-    <t>组织启用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>addUser-preset</t>
-  </si>
-  <si>
-    <t>添加新用户</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您已经成功添加${addCount}名新用户&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>modifyPassword-preset</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>addFunction-preset</t>
-  </si>
-  <si>
-    <t>系统通知</t>
   </si>
   <si>
     <t>${content}</t>
@@ -2206,8 +2200,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2276,9 +2270,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2289,16 +2283,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2312,16 +2373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2343,86 +2412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2501,7 +2495,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,7 +2615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,49 +2633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,103 +2675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,17 +2782,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2806,8 +2811,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2836,28 +2856,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2865,23 +2874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2890,148 +2884,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3782,10 +3776,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:M21"/>
+  <dimension ref="D7:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3935,7 +3929,7 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3952,19 +3946,19 @@
     </row>
     <row r="12" spans="5:13">
       <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3993,7 +3987,7 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4051,7 +4045,7 @@
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4063,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:13">
@@ -4092,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -4106,10 +4100,10 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4126,19 +4120,19 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4155,19 +4149,19 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4196,7 +4190,7 @@
         <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4208,35 +4202,6 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13">
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
         <v>1</v>
       </c>
     </row>
@@ -4252,7 +4217,7 @@
   <sheetPr/>
   <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4271,7 +4236,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4283,25 +4248,25 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>100</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="5:18">
@@ -4309,25 +4274,25 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s">
         <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="s">
-        <v>108</v>
       </c>
       <c r="P8" s="2"/>
       <c r="R8" s="2"/>
@@ -4337,25 +4302,25 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -4363,25 +4328,25 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -4389,25 +4354,25 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="5:13">
@@ -4415,13 +4380,13 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4430,10 +4395,10 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="5:13">
@@ -4441,25 +4406,25 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="5:13">
@@ -4467,25 +4432,25 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="s">
         <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="5:14">
@@ -4493,13 +4458,13 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4508,10 +4473,10 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="5:14">
@@ -4519,25 +4484,25 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -4545,25 +4510,25 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" t="s">
         <v>132</v>
       </c>
-      <c r="G17" t="s">
+      <c r="M17" t="s">
         <v>133</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -4571,25 +4536,25 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="s">
         <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -4597,25 +4562,25 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="s">
         <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" ht="31.5" spans="5:13">
@@ -4623,25 +4588,25 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="19695" windowHeight="6930" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2165,7 +2165,7 @@
     <t>registerOrganization-preset</t>
   </si>
   <si>
-    <t>&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;请在${timeout}分钟内使用验证码：&lt;/p&gt;&lt;p&gt; ${captcha}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>jobStatusSite-preset</t>
@@ -2201,9 +2201,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2269,13 +2269,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2284,8 +2278,61 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,6 +2340,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2320,15 +2374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,17 +2398,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2362,61 +2417,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2495,7 +2495,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,19 +2615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,55 +2633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,13 +2645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,25 +2663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,43 +2675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,41 +2793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2847,11 +2817,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2874,8 +2874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,148 +2884,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4217,8 +4217,8 @@
   <sheetPr/>
   <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19695" windowHeight="6930" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -2200,10 +2200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2269,9 +2269,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,23 +2349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2338,37 +2381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,22 +2405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2413,10 +2412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2495,7 +2495,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,7 +2573,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,31 +2651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,97 +2663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,25 +2675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,37 +2782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2828,6 +2808,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,21 +2856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2879,153 +2864,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4217,13 +4217,14 @@
   <sheetPr/>
   <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
@@ -4270,8 +4271,8 @@
       </c>
     </row>
     <row r="8" spans="5:18">
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>102</v>
       </c>
       <c r="F8" t="s">
         <v>102</v>
@@ -4298,8 +4299,8 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="5:13">
-      <c r="E9">
-        <v>2</v>
+      <c r="E9" t="s">
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>106</v>
@@ -4324,8 +4325,8 @@
       </c>
     </row>
     <row r="10" spans="5:13">
-      <c r="E10">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>109</v>
@@ -4350,8 +4351,8 @@
       </c>
     </row>
     <row r="11" spans="5:13">
-      <c r="E11">
-        <v>4</v>
+      <c r="E11" t="s">
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>112</v>
@@ -4376,8 +4377,8 @@
       </c>
     </row>
     <row r="12" spans="5:13">
-      <c r="E12">
-        <v>5</v>
+      <c r="E12" t="s">
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>115</v>
@@ -4402,8 +4403,8 @@
       </c>
     </row>
     <row r="13" spans="5:13">
-      <c r="E13">
-        <v>6</v>
+      <c r="E13" t="s">
+        <v>118</v>
       </c>
       <c r="F13" t="s">
         <v>118</v>
@@ -4428,8 +4429,8 @@
       </c>
     </row>
     <row r="14" spans="5:13">
-      <c r="E14">
-        <v>7</v>
+      <c r="E14" t="s">
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>120</v>
@@ -4454,8 +4455,8 @@
       </c>
     </row>
     <row r="15" spans="5:14">
-      <c r="E15">
-        <v>8</v>
+      <c r="E15" t="s">
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>124</v>
@@ -4480,8 +4481,8 @@
       </c>
     </row>
     <row r="16" spans="5:14">
-      <c r="E16">
-        <v>9</v>
+      <c r="E16" t="s">
+        <v>128</v>
       </c>
       <c r="F16" t="s">
         <v>128</v>
@@ -4506,8 +4507,8 @@
       </c>
     </row>
     <row r="17" spans="5:13">
-      <c r="E17">
-        <v>12</v>
+      <c r="E17" t="s">
+        <v>130</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
@@ -4532,8 +4533,8 @@
       </c>
     </row>
     <row r="18" spans="5:13">
-      <c r="E18">
-        <v>13</v>
+      <c r="E18" t="s">
+        <v>134</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
@@ -4558,8 +4559,8 @@
       </c>
     </row>
     <row r="19" spans="5:13">
-      <c r="E19">
-        <v>14</v>
+      <c r="E19" t="s">
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>135</v>
@@ -4584,8 +4585,8 @@
       </c>
     </row>
     <row r="20" ht="31.5" spans="5:13">
-      <c r="E20">
-        <v>15</v>
+      <c r="E20" t="s">
+        <v>136</v>
       </c>
       <c r="F20" t="s">
         <v>136</v>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="22391" windowHeight="6912" tabRatio="452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -2060,6 +2060,15 @@
     <t>当事务实例失败时，向触发者发送消息提醒。</t>
   </si>
   <si>
+    <t>resourceDeleteConfirmation</t>
+  </si>
+  <si>
+    <t>资源删除确认通知</t>
+  </si>
+  <si>
+    <t>删除Devops资源时，给相关用户发送验证码</t>
+  </si>
+  <si>
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
@@ -2193,6 +2202,27 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-preset</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-email</t>
+  </si>
+  <si>
+    <t>Choerodon验证邮件</t>
+  </si>
+  <si>
+    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${verificationCode}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-pm</t>
+  </si>
+  <si>
+    <t>删除操作验证码</t>
+  </si>
+  <si>
+    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${verificationCode}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
 </sst>
 </file>
@@ -2200,10 +2230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2270,58 +2300,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,9 +2335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2381,9 +2374,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2405,8 +2405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2417,6 +2418,35 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2495,7 +2525,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,13 +2615,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,79 +2681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,73 +2699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,17 +2812,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2816,7 +2840,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,11 +2871,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2864,168 +2909,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3531,10 +3561,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.628787878788" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3566,7 +3596,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="30" spans="1:7">
+    <row r="4" ht="31.2" spans="1:7">
       <c r="A4"/>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -3612,7 +3642,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" ht="161.25" spans="3:6">
+    <row r="9" ht="156" spans="3:6">
       <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
@@ -3626,7 +3656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
+    <row r="10" ht="202.8" spans="3:5">
       <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
@@ -3648,7 +3678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
+    <row r="12" ht="46.8" spans="3:5">
       <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
@@ -3669,7 +3699,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" ht="132.75" spans="3:5">
+    <row r="15" ht="124.8" spans="3:5">
       <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
@@ -3743,7 +3773,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" customHeight="1" spans="3:5">
+    <row r="26" ht="15.75" customHeight="1" spans="3:5">
       <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
@@ -3752,7 +3782,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" ht="30" spans="3:3">
+    <row r="27" ht="31.2" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3776,23 +3806,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:M20"/>
+  <dimension ref="D7:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="D7:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.1287878787879" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="20.1287878787879" customWidth="1"/>
+    <col min="7" max="7" width="17.6287878787879" customWidth="1"/>
     <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="14.8787878787879" customWidth="1"/>
+    <col min="11" max="11" width="20.3787878787879" customWidth="1"/>
+    <col min="12" max="12" width="14.6287878787879" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4202,6 +4232,35 @@
         <v>1</v>
       </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
     </row>
@@ -4215,29 +4274,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:R20"/>
+  <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.8787878787879" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="26.6287878787879" customWidth="1"/>
+    <col min="7" max="7" width="16.1287878787879" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="28.625" customWidth="1"/>
-    <col min="13" max="13" width="109.375" customWidth="1"/>
-    <col min="14" max="14" width="134.625" customWidth="1"/>
+    <col min="9" max="9" width="22.8787878787879" customWidth="1"/>
+    <col min="10" max="11" width="20.1287878787879" customWidth="1"/>
+    <col min="12" max="12" width="28.6287878787879" customWidth="1"/>
+    <col min="13" max="13" width="109.378787878788" customWidth="1"/>
+    <col min="14" max="14" width="134.628787878788" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4249,39 +4308,39 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4290,26 +4349,26 @@
         <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4318,24 +4377,24 @@
         <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4344,24 +4403,24 @@
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4370,24 +4429,24 @@
         <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="5:13">
       <c r="E12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4396,24 +4455,24 @@
         <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4425,47 +4484,47 @@
         <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4474,24 +4533,24 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="5:14">
       <c r="E16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4500,24 +4559,24 @@
         <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4526,24 +4585,24 @@
         <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4552,24 +4611,24 @@
         <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4578,24 +4637,24 @@
         <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" ht="31.5" spans="5:13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" ht="31.2" spans="5:13">
       <c r="E20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4604,10 +4663,63 @@
         <v>91</v>
       </c>
       <c r="L20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22391" windowHeight="6912" tabRatio="452" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2213,7 +2213,7 @@
     <t>Choerodon验证邮件</t>
   </si>
   <si>
-    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${verificationCode}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
   <si>
     <t>resourceDeleteConfirmation-pm</t>
@@ -2222,7 +2222,7 @@
     <t>删除操作验证码</t>
   </si>
   <si>
-    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${verificationCode}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
 </sst>
 </file>
@@ -2230,10 +2230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2300,12 +2300,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2314,22 +2315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,7 +2328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2381,9 +2366,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2400,51 +2445,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2525,37 +2525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,97 +2567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,13 +2585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,13 +2615,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,9 +2814,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2840,32 +2860,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2886,6 +2880,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2900,162 +2909,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3808,7 +3808,7 @@
   <sheetPr/>
   <dimension ref="D7:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F21" sqref="D7:M21"/>
     </sheetView>
   </sheetViews>
@@ -4276,8 +4276,8 @@
   <sheetPr/>
   <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="M28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="15.6"/>
@@ -4714,7 +4714,6 @@
       <c r="J22" t="s">
         <v>94</v>
       </c>
-      <c r="K22"/>
       <c r="L22" t="s">
         <v>147</v>
       </c>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2168,7 +2168,204 @@
     <t>choerodon验证邮件</t>
   </si>
   <si>
-    <t>&lt;p&gt;${userName}，您好！&lt;/p&gt;&lt;p&gt;请使用下面的验证码重置您的密码，验证码 10 分钟内有效:&lt;/p&gt;&lt;p&gt; ${verifyCode}&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+    <t>&lt;!doctype html&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
+&lt;head&gt;
+  &lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="600"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:600px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tr&gt;
+                &lt;td align="left" style="font-size:0px;padding:10px 25px;word-break:break-word;"&gt;
+                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
+                    &lt;body&gt;
+                    &lt;div style="width: 600px;background: #FFFFFF;margin: 0 auto;"&gt;
+                      &lt;div style="height: 115px;background-color: #ffffff;border-bottom: 8px solid #3F51B5;"&gt;
+                        &lt;table&gt;
+                          &lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; 
+                                    &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:190px;" /&gt;
+                                  &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/table&gt;
+                            &lt;td&gt;
+                              &lt;td style="vertical-align: bottom;"&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                  &lt;p style="font-size: 14px;color: #252528;letter-spacing: 0;display: inline-block;text-align: right;width: 558px;padding-top: 55px;"&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px;border: 1px solid #E6E6E6;border-bottom: 0;border-top: 0;border-radius: 2px;background: #FFFFFF;"&gt;
+                        &lt;div&gt;
+                          &lt;p style="margin-top: 0"&gt;亲爱的${userName}，您好！&lt;/p&gt;
+                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，您用于找回密码的验证码为：&lt;/p&gt;
+                          &lt;p style="text-align: center; margin-top: 18px; margin-bottom: 18px; line-height: 24px; font-size: 24px"&gt;${verifyCode}&lt;/p&gt;
+                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;此验证码10分钟内有效，为了保障您的账户安全，请不要泄漏给他人。&lt;/p&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/table&gt;
+                              &lt;td&gt;
+                              &lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;。&lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：service@choerodon.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="width: 600px;height: 34px;background: #3F51B5;"&gt;
+                        &lt;p style="opacity: 0.8;font-size: 10px;color: #FFFFFF;text-align: center;display: inline-block;line-height: 34px;width: 100%;margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;/body&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
   </si>
   <si>
     <t>registerOrganization-preset</t>
@@ -2230,10 +2427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2306,14 +2503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2328,6 +2517,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2359,92 +2639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2525,31 +2722,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,19 +2770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,19 +2788,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,49 +2866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,31 +2878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,29 +3011,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,11 +3033,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2880,32 +3087,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2914,148 +3111,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3561,10 +3758,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="100.628787878788" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3596,7 +3793,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="31.2" spans="1:7">
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -3642,7 +3839,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" ht="156" spans="3:6">
+    <row r="9" ht="161.25" spans="3:6">
       <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
@@ -3656,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="202.8" spans="3:5">
+    <row r="10" ht="191.25" spans="3:5">
       <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
@@ -3678,7 +3875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="46.8" spans="3:5">
+    <row r="12" ht="44.25" spans="3:5">
       <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3896,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" ht="124.8" spans="3:5">
+    <row r="15" ht="132.75" spans="3:5">
       <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
@@ -3773,7 +3970,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:5">
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
@@ -3782,7 +3979,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" ht="31.2" spans="3:3">
+    <row r="27" ht="30" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3812,17 +4009,17 @@
       <selection activeCell="F21" sqref="D7:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.1287878787879" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1287878787879" customWidth="1"/>
-    <col min="7" max="7" width="17.6287878787879" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.8787878787879" customWidth="1"/>
-    <col min="11" max="11" width="20.3787878787879" customWidth="1"/>
-    <col min="12" max="12" width="14.6287878787879" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4276,22 +4473,22 @@
   <sheetPr/>
   <dimension ref="D7:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="M28" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.8787878787879" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="26.6287878787879" customWidth="1"/>
-    <col min="7" max="7" width="16.1287878787879" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.8787878787879" customWidth="1"/>
-    <col min="10" max="11" width="20.1287878787879" customWidth="1"/>
-    <col min="12" max="12" width="28.6287878787879" customWidth="1"/>
-    <col min="13" max="13" width="109.378787878788" customWidth="1"/>
-    <col min="14" max="14" width="134.628787878788" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="28.625" customWidth="1"/>
+    <col min="13" max="13" width="109.375" customWidth="1"/>
+    <col min="14" max="14" width="134.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4513,7 +4710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" ht="251.2" spans="5:14">
       <c r="E15" t="s">
         <v>127</v>
       </c>
@@ -4535,7 +4732,7 @@
       <c r="K15" t="s">
         <v>129</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4643,7 +4840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" ht="31.2" spans="5:13">
+    <row r="20" ht="31.5" spans="5:13">
       <c r="E20" t="s">
         <v>139</v>
       </c>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="452" activeTab="2"/>
+    <workbookView windowHeight="14480" tabRatio="452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <r>
       <rPr>
@@ -2072,25 +2072,19 @@
     <t>NOTIFY_TEMPLATE</t>
   </si>
   <si>
-    <t>#MESSAGE_TYPE</t>
+    <t>#SENDING_TYPE</t>
   </si>
   <si>
     <t>IS_PREDEFINED</t>
   </si>
   <si>
-    <t>BUSINESS_TYPE</t>
-  </si>
-  <si>
-    <t>EMAIL_TITLE</t>
-  </si>
-  <si>
-    <t>PM_TITLE</t>
-  </si>
-  <si>
-    <t>PM_CONTENT</t>
-  </si>
-  <si>
-    <t>EMAIL_CONTENT</t>
+    <t>#SEND_SETTING_CODE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
   </si>
   <si>
     <t>enableProject-preset</t>
@@ -2144,16 +2138,16 @@
     <t>modifyPassword-preset</t>
   </si>
   <si>
-    <t>&lt;h4&gt;${userName}：&lt;/h4&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
+    <t>&lt;h4&gt;${userName}：&lt;/h5&gt;&lt;p&gt;您好！&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;您已成功修改您的用户密码。 &lt;/p&gt;</t>
   </si>
   <si>
     <t>addFunction-preset</t>
   </si>
   <si>
+    <t>addFunction</t>
+  </si>
+  <si>
     <t>系统通知</t>
-  </si>
-  <si>
-    <t>addFunction</t>
   </si>
   <si>
     <t>${content}</t>
@@ -2377,9 +2371,6 @@
     <t>jobStatusSite-preset</t>
   </si>
   <si>
-    <t>任务状态变更通知</t>
-  </si>
-  <si>
     <t>${jobName}状态发生变更</t>
   </si>
   <si>
@@ -2404,22 +2395,16 @@
     <t>resourceDeleteConfirmation-preset</t>
   </si>
   <si>
-    <t>resourceDeleteConfirmation-email</t>
-  </si>
-  <si>
     <t>Choerodon验证邮件</t>
   </si>
   <si>
     <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
   <si>
-    <t>resourceDeleteConfirmation-pm</t>
-  </si>
-  <si>
     <t>删除操作验证码</t>
   </si>
   <si>
-    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
   </si>
 </sst>
 </file>
@@ -2428,11 +2413,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2440,14 +2425,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
     </font>
@@ -2462,19 +2454,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2497,7 +2476,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2511,51 +2513,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2570,7 +2536,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2584,16 +2573,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,17 +2612,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2628,22 +2623,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2722,13 +2701,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,43 +2803,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,25 +2839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2824,37 +2857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,37 +2875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2919,12 +2898,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2949,6 +2944,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2957,26 +2965,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2991,21 +2979,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3033,30 +3021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3072,17 +3036,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3106,163 +3070,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3278,144 +3254,144 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3750,68 +3726,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
+    <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="63.95" customHeight="1" spans="1:8">
-      <c r="A1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="48.95" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" ht="36" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" ht="18" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
@@ -3819,91 +3795,91 @@
     <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="17" t="s">
+    <row r="7" ht="17.6" spans="3:5">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+    <row r="8" ht="17.6" spans="3:5">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" ht="194" spans="3:6">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="229" spans="3:5">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" ht="53" spans="3:5">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="28" t="s">
+    <row r="13" ht="17.6" spans="3:5">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" ht="17.6" spans="3:5">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" ht="159" spans="3:5">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3913,48 +3889,48 @@
     <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="16" t="s">
+    <row r="18" ht="17.6" spans="3:4">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+    <row r="19" ht="18" spans="3:5">
+      <c r="C19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="32" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="32" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="32" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="32" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3962,25 +3938,25 @@
       <c r="D24"/>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="36" spans="3:3">
+      <c r="C27" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4001,15 +3977,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F21" sqref="D7:M21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -4469,29 +4445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:R22"/>
+  <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2"/>
   <cols>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="28.625" customWidth="1"/>
-    <col min="13" max="13" width="109.375" customWidth="1"/>
-    <col min="14" max="14" width="134.625" customWidth="1"/>
+    <col min="5" max="5" width="31.9416666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.4333333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="69.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
         <v>97</v>
       </c>
@@ -4499,423 +4472,321 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
         <v>102</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="N7" t="s">
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="5:18">
-      <c r="E8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="M9" t="s">
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
         <v>113</v>
       </c>
-      <c r="M10" t="s">
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>115</v>
       </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
         <v>116</v>
       </c>
-      <c r="M11" t="s">
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" t="s">
+      <c r="J12" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
         <v>119</v>
       </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
-      <c r="E13" t="s">
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
         <v>121</v>
       </c>
-      <c r="F13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="5:13">
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>123</v>
       </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>124</v>
       </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="5:10">
+      <c r="E15" t="s">
         <v>125</v>
       </c>
-      <c r="L14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="F15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" ht="251.2" spans="5:14">
-      <c r="E15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
         <v>127</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="J16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
-      <c r="E16" t="s">
+    <row r="17" spans="5:10">
+      <c r="E17" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="5:13">
-      <c r="E17" t="s">
+      <c r="J17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
         <v>133</v>
       </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" t="s">
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" t="s">
         <v>135</v>
       </c>
-      <c r="M17" t="s">
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" ht="40" spans="5:10">
+      <c r="E20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="E18" t="s">
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13">
-      <c r="E19" t="s">
+      <c r="J20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" ht="31.5" spans="5:13">
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
         <v>139</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" t="s">
-        <v>140</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" t="s">
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
         <v>142</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J22" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13">
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480" tabRatio="452" activeTab="2"/>
+    <workbookView windowWidth="19335" windowHeight="7590" tabRatio="452" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="NOTIFY_SEND_SETTING" sheetId="18" r:id="rId2"/>
     <sheet name="NOTIFY_TEMPLATE" sheetId="19" r:id="rId3"/>
+    <sheet name="NOTIFY_SEND_SETTING_CATEGORY" sheetId="20" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <r>
       <rPr>
@@ -1940,6 +1941,9 @@
     <t>IS_ALLOW_CONFIG</t>
   </si>
   <si>
+    <t>CATEGORY_CODE</t>
+  </si>
+  <si>
     <t>forgetPassword</t>
   </si>
   <si>
@@ -1952,6 +1956,9 @@
     <t>site</t>
   </si>
   <si>
+    <t>account-security-notice</t>
+  </si>
+  <si>
     <t>addUser</t>
   </si>
   <si>
@@ -1964,6 +1971,9 @@
     <t>organization</t>
   </si>
   <si>
+    <t>org-management</t>
+  </si>
+  <si>
     <t>modifyPassword</t>
   </si>
   <si>
@@ -1985,6 +1995,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>pro-management</t>
+  </si>
+  <si>
     <t>disableProject</t>
   </si>
   <si>
@@ -2021,6 +2034,9 @@
     <t>用户注册组织，发送邮箱验证进行验证</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>jobStatusSite</t>
   </si>
   <si>
@@ -2030,6 +2046,9 @@
     <t>定时任务状态发生变化，给相关用户发送通知。</t>
   </si>
   <si>
+    <t>sys-management</t>
+  </si>
+  <si>
     <t>jobStatusOrganization</t>
   </si>
   <si>
@@ -2067,6 +2086,9 @@
   </si>
   <si>
     <t>删除Devops资源时，给相关用户发送验证码</t>
+  </si>
+  <si>
+    <t>resource-security-notice</t>
   </si>
   <si>
     <t>NOTIFY_TEMPLATE</t>
@@ -2406,16 +2428,109 @@
   <si>
     <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
   </si>
+  <si>
+    <t>NOTIFY_SEND_SETTING_CATEGORY</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用户的操作触发的其他类型通知</t>
+  </si>
+  <si>
+    <t>register-org-notice</t>
+  </si>
+  <si>
+    <t>注册组织通知</t>
+  </si>
+  <si>
+    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
+  </si>
+  <si>
+    <t>issue-status-change-notice</t>
+  </si>
+  <si>
+    <t>问题状态变更</t>
+  </si>
+  <si>
+    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+  </si>
+  <si>
+    <t>stream-change-notice</t>
+  </si>
+  <si>
+    <t>流水线变更通知</t>
+  </si>
+  <si>
+    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
+  </si>
+  <si>
+    <t>资源安全通知</t>
+  </si>
+  <si>
+    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>user-cooperation-notice</t>
+  </si>
+  <si>
+    <t>用户协作消息</t>
+  </si>
+  <si>
+    <t>用户在协作共享进行消息发送或者@其他用户时通知到相关用户</t>
+  </si>
+  <si>
+    <t>user-feedback</t>
+  </si>
+  <si>
+    <t>用户反馈</t>
+  </si>
+  <si>
+    <t>用户在Choerodon平台使用过程中对平台的体验向开发人员进行反馈</t>
+  </si>
+  <si>
+    <t>app-market-notice</t>
+  </si>
+  <si>
+    <t>应用市场</t>
+  </si>
+  <si>
+    <t>应用市场进行下载、更新应用，以及客户管理的一系列操作的提醒</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2432,6 +2547,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
       <charset val="134"/>
@@ -2441,19 +2569,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2475,6 +2590,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2483,7 +2629,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2497,58 +2679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2557,9 +2687,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2573,35 +2718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2610,19 +2726,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2701,7 +2816,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,175 +2996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,28 +3013,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2944,12 +3043,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2958,13 +3066,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2979,30 +3085,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3017,45 +3114,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3085,153 +3143,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3258,140 +3373,140 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3726,15 +3841,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
@@ -3748,46 +3863,46 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="48.95" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" ht="36" spans="1:7">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
@@ -3795,91 +3910,91 @@
     <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" ht="17.6" spans="3:5">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="3:5">
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" ht="194" spans="3:6">
-      <c r="C9" s="14" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="229" spans="3:5">
-      <c r="C10" s="16" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="53" spans="3:5">
-      <c r="C12" s="12" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="3:5">
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" ht="17.6" spans="3:5">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" ht="159" spans="3:5">
-      <c r="C15" s="17" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3889,48 +4004,48 @@
     <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" ht="17.6" spans="3:4">
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" ht="18" spans="3:5">
-      <c r="C19" s="19" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="20" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="20" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3938,25 +4053,25 @@
       <c r="D24"/>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="23" t="s">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3977,15 +4092,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:M21"/>
+  <dimension ref="D7:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
@@ -3996,10 +4111,10 @@
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -4030,22 +4145,25 @@
       <c r="M7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="5:13">
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4059,22 +4177,25 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="5:13">
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
       <c r="E9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4088,22 +4209,25 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="5:13">
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4117,22 +4241,25 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="5:13">
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4146,22 +4273,25 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="5:13">
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
         <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4175,22 +4305,25 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="5:13">
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4204,22 +4337,25 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="5:13">
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4233,22 +4369,25 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="5:13">
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4262,22 +4401,25 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="5:13">
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
       <c r="E16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4291,22 +4433,25 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="5:13">
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
       <c r="E17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4320,22 +4465,25 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="5:13">
+      <c r="N17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
       <c r="E18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4349,22 +4497,25 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="5:13">
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
       <c r="E19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4378,22 +4529,25 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="5:13">
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
       <c r="E20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4407,22 +4561,25 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="5:13">
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
       <c r="E21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4435,6 +4592,9 @@
       </c>
       <c r="M21">
         <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4445,15 +4605,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F$1:F$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="31.9416666666667" customWidth="1"/>
@@ -4466,327 +4626,327 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="5:10">
       <c r="E9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="5:10">
       <c r="E10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="5:10">
       <c r="E12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="5:10">
       <c r="E13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="5:10">
       <c r="E14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="5:10">
       <c r="E15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="5:10">
       <c r="E16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" ht="40" spans="5:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" ht="47.25" spans="5:10">
       <c r="E20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4794,4 +4954,213 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\notify-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFD102-75B7-4E76-AA58-68455F2E0B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7590" tabRatio="452" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="452" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -46,7 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -58,7 +64,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -76,7 +82,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -94,7 +100,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -112,7 +118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -122,7 +128,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -140,7 +146,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -159,7 +165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -177,7 +183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -188,7 +194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -206,7 +212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -224,7 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -245,7 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -265,7 +271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -285,7 +291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -305,7 +311,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -325,7 +331,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -336,7 +342,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -354,7 +360,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -365,7 +371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -383,7 +389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -401,7 +407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -419,7 +425,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -437,7 +443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -484,7 +490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -502,7 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -520,7 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -538,7 +544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -549,7 +555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -567,7 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -585,7 +591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -604,7 +610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -622,7 +628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -641,7 +647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -659,7 +665,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -670,7 +676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -688,7 +694,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -706,7 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -729,7 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -747,7 +753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -765,7 +771,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -783,7 +789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -801,7 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -812,7 +818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -830,7 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -840,7 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -860,7 +866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -870,7 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -888,7 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -906,7 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -929,7 +935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -947,7 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -966,7 +972,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -985,7 +991,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1004,7 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1024,7 +1030,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1043,7 +1049,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1077,7 +1083,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1097,7 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1108,7 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1126,7 +1132,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1146,6 +1152,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1164,6 +1171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1176,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1194,6 +1203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1212,6 +1222,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1230,6 +1241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1244,7 +1256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1262,7 +1274,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1280,7 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1298,7 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1316,7 +1328,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1331,7 +1343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1340,7 +1352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1358,7 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1373,7 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1382,7 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1400,7 +1412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1414,7 +1426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1432,7 +1444,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1450,7 +1462,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1469,7 +1481,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1492,7 +1504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1510,7 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1528,7 +1540,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1547,7 +1559,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1567,7 +1579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1577,7 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1586,7 +1598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1597,7 +1609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1615,7 +1627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1633,7 +1645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1651,7 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1670,7 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1688,7 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1706,7 +1718,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1725,7 +1737,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1743,7 +1755,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1761,7 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1779,7 +1791,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1798,7 +1810,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1809,7 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1819,7 +1831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1828,7 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1839,7 +1851,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1857,7 +1869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1868,7 +1880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1886,7 +1898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1905,7 +1917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2516,23 +2528,18 @@
     <t>app-market-notice</t>
   </si>
   <si>
-    <t>应用市场</t>
-  </si>
-  <si>
     <t>应用市场进行下载、更新应用，以及客户管理的一系列操作的提醒</t>
+  </si>
+  <si>
+    <t>应用市场相关通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2543,7 +2550,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2562,14 +2569,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2587,164 +2594,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2762,13 +2618,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2780,10 +2636,16 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2814,194 +2676,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3102,251 +2778,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3369,23 +2803,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3441,9 +2863,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3456,58 +2875,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3580,6 +2967,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3837,266 +3227,265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="48.95" customHeight="1" spans="1:7">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="173.25">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="25" t="s">
+    <row r="10" spans="1:8" ht="204.75">
+      <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="1:8" ht="47.25">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="132.75">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="31" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="31" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="33" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="34" t="s">
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.5">
+      <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -4149,7 +3538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>55</v>
       </c>
@@ -4181,7 +3570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="5:14">
+    <row r="9" spans="4:14">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -4213,7 +3602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="5:14">
+    <row r="10" spans="4:14">
       <c r="E10" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +3634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="5:14">
+    <row r="11" spans="4:14">
       <c r="E11" t="s">
         <v>68</v>
       </c>
@@ -4277,7 +3666,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="5:14">
+    <row r="12" spans="4:14">
       <c r="E12" t="s">
         <v>73</v>
       </c>
@@ -4309,7 +3698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="5:14">
+    <row r="13" spans="4:14">
       <c r="E13" t="s">
         <v>76</v>
       </c>
@@ -4341,7 +3730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="5:14">
+    <row r="14" spans="4:14">
       <c r="E14" t="s">
         <v>79</v>
       </c>
@@ -4373,7 +3762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" spans="4:14">
       <c r="E15" t="s">
         <v>82</v>
       </c>
@@ -4405,7 +3794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
+    <row r="16" spans="4:14">
       <c r="E16" t="s">
         <v>86</v>
       </c>
@@ -4598,15 +3987,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4616,15 +4004,15 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="31.9416666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.4333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="69.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
         <v>104</v>
       </c>
@@ -4647,7 +4035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>110</v>
       </c>
@@ -4669,7 +4057,7 @@
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="5:10">
+    <row r="9" spans="4:14">
       <c r="E9" t="s">
         <v>114</v>
       </c>
@@ -4689,7 +4077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="4:14">
       <c r="E10" t="s">
         <v>117</v>
       </c>
@@ -4709,7 +4097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="4:14">
       <c r="E11" t="s">
         <v>120</v>
       </c>
@@ -4729,7 +4117,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="4:14">
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -4749,7 +4137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="5:10">
+    <row r="13" spans="4:14">
       <c r="E13" t="s">
         <v>126</v>
       </c>
@@ -4769,7 +4157,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="5:10">
+    <row r="14" spans="4:14">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -4789,7 +4177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="5:10">
+    <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
       <c r="E15" t="s">
         <v>132</v>
       </c>
@@ -4809,7 +4197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="5:10">
+    <row r="16" spans="4:14">
       <c r="E16" t="s">
         <v>136</v>
       </c>
@@ -4889,7 +4277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" ht="47.25" spans="5:10">
+    <row r="20" spans="5:10" ht="47.25">
       <c r="E20" t="s">
         <v>143</v>
       </c>
@@ -4950,22 +4338,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
@@ -4991,7 +4378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>85</v>
       </c>
@@ -5005,7 +4392,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -5019,7 +4406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>157</v>
       </c>
@@ -5033,7 +4420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>160</v>
       </c>
@@ -5047,7 +4434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -5061,7 +4448,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -5075,7 +4462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>64</v>
       </c>
@@ -5089,7 +4476,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>72</v>
       </c>
@@ -5103,7 +4490,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" t="s">
         <v>89</v>
       </c>
@@ -5153,14 +4540,15 @@
         <v>179</v>
       </c>
       <c r="G19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" t="s">
         <v>180</v>
       </c>
-      <c r="H19" t="s">
-        <v>181</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFD102-75B7-4E76-AA58-68455F2E0B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE5149E-A990-43C8-A8A7-0FC1CE58B342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="452" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -2532,6 +2532,46 @@
   </si>
   <si>
     <t>应用市场相关通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>app-service-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务创建失败、启用、停用通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-management-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并请求以及持续集成通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>deployment-resources-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署资源通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码管理通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署实例、网络、域名等资源失败通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream-change-notice</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2875,11 +2915,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3239,20 +3279,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3262,19 +3302,19 @@
       <c r="D2"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31"/>
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
       <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="33" t="s">
         <v>3</v>
@@ -3320,7 +3360,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3356,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3377,7 +3417,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
@@ -3446,21 +3486,21 @@
       <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.5">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
@@ -3489,18 +3529,18 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4001,15 +4041,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" customWidth="1"/>
+    <col min="10" max="10" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4277,7 +4317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="47.25">
+    <row r="20" spans="5:10" ht="46.8">
       <c r="E20" t="s">
         <v>143</v>
       </c>
@@ -4346,19 +4386,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H19"/>
+  <dimension ref="D7:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -4422,7 +4462,7 @@
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>160</v>
@@ -4544,6 +4584,48 @@
       </c>
       <c r="H19" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE5149E-A990-43C8-A8A7-0FC1CE58B342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7EAAE-EC28-46AE-A618-CDDE75BAB34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="193">
   <si>
     <r>
       <rPr>
@@ -2572,6 +2572,10 @@
   </si>
   <si>
     <t>stream-change-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3525,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4008,7 +4012,7 @@
         <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4388,8 +4392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7EAAE-EC28-46AE-A618-CDDE75BAB34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0F193-55FE-445A-AF39-9A1384B4FC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0F193-55FE-445A-AF39-9A1384B4FC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA26D2-495E-439B-8FAF-F7A12EE2682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="193">
   <si>
     <r>
       <rPr>
@@ -1974,9 +1974,6 @@
     <t>addUser</t>
   </si>
   <si>
-    <t>管理员添加/导入新用户</t>
-  </si>
-  <si>
     <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
   </si>
   <si>
@@ -2085,16 +2082,10 @@
     <t>sagaInstanceFail</t>
   </si>
   <si>
-    <t>事务实例失败通知</t>
-  </si>
-  <si>
     <t>当事务实例失败时，向触发者发送消息提醒。</t>
   </si>
   <si>
     <t>resourceDeleteConfirmation</t>
-  </si>
-  <si>
-    <t>资源删除确认通知</t>
   </si>
   <si>
     <t>删除Devops资源时，给相关用户发送验证码</t>
@@ -2426,18 +2417,9 @@
     <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
   </si>
   <si>
-    <t>resourceDeleteConfirmation-preset</t>
-  </si>
-  <si>
-    <t>Choerodon验证邮件</t>
-  </si>
-  <si>
     <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
   <si>
-    <t>删除操作验证码</t>
-  </si>
-  <si>
     <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
   </si>
   <si>
@@ -2453,33 +2435,21 @@
     <t>register-org-notice</t>
   </si>
   <si>
-    <t>注册组织通知</t>
-  </si>
-  <si>
     <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
   </si>
   <si>
     <t>issue-status-change-notice</t>
   </si>
   <si>
-    <t>问题状态变更</t>
-  </si>
-  <si>
     <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
   </si>
   <si>
     <t>stream-change-notice</t>
   </si>
   <si>
-    <t>流水线变更通知</t>
-  </si>
-  <si>
     <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
   </si>
   <si>
-    <t>资源安全通知</t>
-  </si>
-  <si>
     <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
   </si>
   <si>
@@ -2489,50 +2459,13 @@
     <t>用户账户密码被修改后，进行安全警示或身份认证</t>
   </si>
   <si>
-    <t>组织管理</t>
-  </si>
-  <si>
     <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
   </si>
   <si>
-    <t>项目管理</t>
-  </si>
-  <si>
     <t>项目管理过程中触发的一系列事件的通知</t>
   </si>
   <si>
-    <t>系统管理</t>
-  </si>
-  <si>
     <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>user-cooperation-notice</t>
-  </si>
-  <si>
-    <t>用户协作消息</t>
-  </si>
-  <si>
-    <t>用户在协作共享进行消息发送或者@其他用户时通知到相关用户</t>
-  </si>
-  <si>
-    <t>user-feedback</t>
-  </si>
-  <si>
-    <t>用户反馈</t>
-  </si>
-  <si>
-    <t>用户在Choerodon平台使用过程中对平台的体验向开发人员进行反馈</t>
-  </si>
-  <si>
-    <t>app-market-notice</t>
-  </si>
-  <si>
-    <t>应用市场进行下载、更新应用，以及客户管理的一系列操作的提醒</t>
-  </si>
-  <si>
-    <t>应用市场相关通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>app-service-notice</t>
@@ -2576,6 +2509,94 @@
   </si>
   <si>
     <t>project</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-security-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon验证邮件</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源删除验证</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源删除验证pm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源删除验证email</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-preset</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册组织通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>register-org-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务实例失败通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源删除验证码</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织消息</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目消息</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys-management</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线通知</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-security-notice</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>org-management</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员添加/导入成员</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro-management</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3529,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3538,8 +3559,8 @@
     <col min="3" max="3" width="5.7265625" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
     <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
     <col min="8" max="8" width="32.7265625" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
     <col min="11" max="11" width="20.36328125" customWidth="1"/>
@@ -3584,16 +3605,16 @@
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
@@ -3608,27 +3629,27 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3643,24 +3664,24 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3675,24 +3696,24 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3707,24 +3728,24 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3739,24 +3760,24 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3768,27 +3789,27 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3803,24 +3824,24 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3835,24 +3856,24 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="4:14">
       <c r="E16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s">
-        <v>88</v>
-      </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3867,24 +3888,24 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="5:14">
       <c r="E17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3899,24 +3920,24 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="5:14">
       <c r="E18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3928,27 +3949,27 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="5:14">
       <c r="E19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3963,21 +3984,21 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="5:14">
       <c r="E20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>58</v>
@@ -3992,27 +4013,27 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="5:14">
       <c r="E21" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4027,10 +4048,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="D8:N21">
+    <sortCondition descending="1" ref="N8"/>
+  </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4041,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
@@ -4051,122 +4075,122 @@
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" customWidth="1"/>
     <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.90625" customWidth="1"/>
     <col min="9" max="9" width="28.6328125" customWidth="1"/>
     <col min="10" max="10" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4175,58 +4199,58 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
       <c r="E15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4235,150 +4259,150 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="4:14">
       <c r="E16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
         <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="5:10" ht="46.8">
       <c r="E20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4390,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H22"/>
+  <dimension ref="D7:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4407,7 +4431,7 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4424,212 +4448,170 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA26D2-495E-439B-8FAF-F7A12EE2682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B92862-8E6D-4706-BD97-713807E64A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="NOTIFY_SEND_SETTING" sheetId="18" r:id="rId2"/>
     <sheet name="NOTIFY_TEMPLATE" sheetId="19" r:id="rId3"/>
     <sheet name="NOTIFY_SEND_SETTING_CATEGORY" sheetId="20" r:id="rId4"/>
+    <sheet name="NOTIFY_MESSAGE_SETTING" sheetId="21" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -2599,12 +2600,87 @@
     <t>pro-management</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>NOTIFY_MESSAGE_SETTING</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NOTIFY_TYPE</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#EVENT_NAME</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_ENABLE</t>
+  </si>
+  <si>
+    <t>EMAIL_ENABLE</t>
+  </si>
+  <si>
+    <t>SMS_ENABLE</t>
+  </si>
+  <si>
+    <t>resourceDelete</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>default-instance</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>default-ingress</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>default-configMap</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>configMap</t>
+  </si>
+  <si>
+    <t>default-certificate</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>default-secret</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>default-service</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2706,6 +2782,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2849,7 +2931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2954,6 +3036,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3304,14 +3389,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.6328125" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="5"/>
       <c r="C1" s="31" t="s">
         <v>0</v>
@@ -3327,7 +3412,7 @@
       <c r="D2"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="30" t="s">
         <v>1</v>
@@ -3339,7 +3424,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="33" t="s">
         <v>3</v>
@@ -3385,7 +3470,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="156">
+    <row r="9" spans="1:8" ht="173.25">
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3399,7 +3484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3421,7 +3506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3442,7 +3527,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="126.6">
+    <row r="15" spans="1:8" ht="132.75">
       <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3610,7 @@
       </c>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="3:5" ht="31.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
@@ -3554,18 +3639,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4065,19 +4150,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="30.90625" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" customWidth="1"/>
-    <col min="10" max="10" width="69.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="30.875" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4345,7 +4430,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="46.8">
+    <row r="20" spans="5:10" ht="47.25">
       <c r="E20" t="s">
         <v>140</v>
       </c>
@@ -4417,16 +4502,16 @@
   <dimension ref="D7:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -4619,4 +4704,197 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
+  <dimension ref="D6:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="25.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:11">
+      <c r="D6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11">
+      <c r="D7" s="35"/>
+      <c r="E7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="E8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="E9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="E10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="E11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="E12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B92862-8E6D-4706-BD97-713807E64A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69039EFE-BB62-439F-A704-87372A8D44AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,6 +3022,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3036,9 +3039,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3398,11 +3398,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3414,22 +3414,22 @@
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3551,11 +3551,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="26" t="s">
@@ -3596,19 +3596,19 @@
       <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="29" t="s">
@@ -4708,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
-  <dimension ref="D6:K12"/>
+  <dimension ref="D7:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4728,68 +4728,45 @@
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:11">
-      <c r="D6" s="4" t="s">
+    <row r="7" spans="4:11">
+      <c r="D7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="4:11">
-      <c r="D7" s="35"/>
-      <c r="E7" s="4" t="s">
+    <row r="8" spans="4:11">
+      <c r="D8" s="30"/>
+      <c r="E8" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11">
-      <c r="E8" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -4803,7 +4780,7 @@
     </row>
     <row r="9" spans="4:11">
       <c r="E9" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>201</v>
@@ -4812,7 +4789,7 @@
         <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -4826,7 +4803,7 @@
     </row>
     <row r="10" spans="4:11">
       <c r="E10" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>201</v>
@@ -4835,7 +4812,7 @@
         <v>98</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -4849,7 +4826,7 @@
     </row>
     <row r="11" spans="4:11">
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>201</v>
@@ -4858,7 +4835,7 @@
         <v>98</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -4872,7 +4849,7 @@
     </row>
     <row r="12" spans="4:11">
       <c r="E12" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>201</v>
@@ -4881,7 +4858,7 @@
         <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -4890,11 +4867,35 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="E13" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69039EFE-BB62-439F-A704-87372A8D44AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44D7ED-B8F0-47A5-B65F-EFD34B810462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -2674,6 +2674,62 @@
   </si>
   <si>
     <t>service</t>
+  </si>
+  <si>
+    <t>EMAIL_ENABLED_FLAG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_ENABLED_FLAG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_ENABLED_FLAG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusSite</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagaInstanceFail</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableProject</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetOrganizationUserPassword</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyPassword</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3389,14 +3445,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="5"/>
       <c r="C1" s="32" t="s">
         <v>0</v>
@@ -3412,7 +3468,7 @@
       <c r="D2"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="31" t="s">
         <v>1</v>
@@ -3424,7 +3480,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="34" t="s">
         <v>3</v>
@@ -3470,7 +3526,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3484,7 +3540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3506,7 +3562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3527,7 +3583,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
@@ -3610,7 +3666,7 @@
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
@@ -3633,27 +3689,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:N21"/>
+  <dimension ref="D7:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:17">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -3687,13 +3745,22 @@
       <c r="N7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="4:14">
+      <c r="O7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
       <c r="E8" t="s">
         <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -3719,13 +3786,22 @@
       <c r="N8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17">
       <c r="E9" t="s">
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
@@ -3751,8 +3827,17 @@
       <c r="N9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="4:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17">
       <c r="E10" t="s">
         <v>98</v>
       </c>
@@ -3783,13 +3868,22 @@
       <c r="N10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="4:14">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
@@ -3815,8 +3909,17 @@
       <c r="N11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17">
       <c r="E12" t="s">
         <v>72</v>
       </c>
@@ -3847,13 +3950,22 @@
       <c r="N12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="4:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17">
       <c r="E13" t="s">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="G13" t="s">
         <v>191</v>
@@ -3879,13 +3991,22 @@
       <c r="N13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="4:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17">
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
         <v>76</v>
@@ -3911,8 +4032,17 @@
       <c r="N14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="4:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -3943,13 +4073,22 @@
       <c r="N15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="4:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17">
       <c r="E16" t="s">
         <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
         <v>90</v>
@@ -3975,13 +4114,22 @@
       <c r="N16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="5:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17">
       <c r="E17" t="s">
         <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="G17" t="s">
         <v>94</v>
@@ -4007,13 +4155,22 @@
       <c r="N17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="5:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
       <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
         <v>82</v>
@@ -4039,13 +4196,22 @@
       <c r="N18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="5:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
       <c r="E19" t="s">
         <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
         <v>92</v>
@@ -4071,13 +4237,22 @@
       <c r="N19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="5:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17">
       <c r="E20" t="s">
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -4103,13 +4278,22 @@
       <c r="N20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="5:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17">
       <c r="E21" t="s">
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -4134,6 +4318,15 @@
       </c>
       <c r="N21" t="s">
         <v>59</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4150,19 +4343,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.90625" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" customWidth="1"/>
+    <col min="10" max="10" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4281,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
         <v>121</v>
@@ -4381,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="I17" t="s">
         <v>136</v>
@@ -4430,7 +4623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="47.25">
+    <row r="20" spans="5:10" ht="46.8">
       <c r="E20" t="s">
         <v>140</v>
       </c>
@@ -4505,13 +4698,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -4710,21 +4903,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="25.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44D7ED-B8F0-47A5-B65F-EFD34B810462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0C587-6F71-48C3-A9B3-C345618FB2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
   <si>
     <r>
       <rPr>
@@ -2729,6 +2729,13 @@
   </si>
   <si>
     <t>modifyPassword</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PROJECT_ID</t>
+  </si>
+  <si>
+    <t>#ENV_ID</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3445,14 +3452,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.6328125" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="5"/>
       <c r="C1" s="32" t="s">
         <v>0</v>
@@ -3468,7 +3475,7 @@
       <c r="D2"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="31" t="s">
         <v>1</v>
@@ -3480,7 +3487,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="34" t="s">
         <v>3</v>
@@ -3526,7 +3533,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="156">
+    <row r="9" spans="1:8" ht="173.25">
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3583,7 +3590,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="126.6">
+    <row r="15" spans="1:8" ht="132.75">
       <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
@@ -3666,7 +3673,7 @@
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="3:5" ht="31.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
@@ -3691,24 +3698,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+    <sheetView topLeftCell="I4" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.453125" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17">
@@ -4347,15 +4354,15 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="30.90625" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" customWidth="1"/>
-    <col min="10" max="10" width="69.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="30.875" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4623,7 +4630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="46.8">
+    <row r="20" spans="5:10" ht="47.25">
       <c r="E20" t="s">
         <v>140</v>
       </c>
@@ -4698,13 +4705,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -4901,27 +4908,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
-  <dimension ref="D7:K13"/>
+  <dimension ref="D7:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="25.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="25.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="18" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11">
+    <row r="7" spans="4:13">
       <c r="D7" s="4" t="s">
         <v>193</v>
       </c>
@@ -4932,22 +4939,28 @@
         <v>195</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="4:13">
       <c r="D8" s="30"/>
       <c r="E8" s="4" t="s">
         <v>202</v>
@@ -4955,134 +4968,134 @@
       <c r="F8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:11">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
       <c r="E9" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:11">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
       <c r="E10" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:11">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
       <c r="E11" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="4:11">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13">
       <c r="E12" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="4:11">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13">
       <c r="E13" s="4" t="s">
         <v>212</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
       <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0C587-6F71-48C3-A9B3-C345618FB2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAABBC-DBAF-40D6-A2F2-D447A639B484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4911,7 +4911,7 @@
   <dimension ref="D7:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4968,6 +4968,12 @@
       <c r="F8" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>174</v>
       </c>
@@ -4991,6 +4997,12 @@
       <c r="F9" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>98</v>
       </c>
@@ -5014,6 +5026,12 @@
       <c r="F10" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>98</v>
       </c>
@@ -5037,6 +5055,12 @@
       <c r="F11" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>98</v>
       </c>
@@ -5060,6 +5084,12 @@
       <c r="F12" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>98</v>
       </c>
@@ -5082,6 +5112,12 @@
       </c>
       <c r="F13" s="4" t="s">
         <v>201</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>98</v>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAABBC-DBAF-40D6-A2F2-D447A639B484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC8B3E-849B-402B-A3A9-ED09458734F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4911,7 +4911,7 @@
   <dimension ref="D7:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_project\notify-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC8B3E-849B-402B-A3A9-ED09458734F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506FE8B-3A09-49CC-9428-83C77CE86900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="226">
   <si>
     <r>
       <rPr>
@@ -2038,12 +2038,6 @@
     <t>registerOrganization</t>
   </si>
   <si>
-    <t>注册组织</t>
-  </si>
-  <si>
-    <t>用户注册组织，发送邮箱验证进行验证</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2066,9 +2060,6 @@
   </si>
   <si>
     <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>项目任务状态通知</t>
   </si>
   <si>
     <t>resetOrganizationUserPassword</t>
@@ -2716,14 +2707,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>registerOrganization</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>forgetPassword</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2736,6 +2719,10 @@
   </si>
   <si>
     <t>#ENV_ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_EDIT</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3452,14 +3439,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="3" max="3" width="100.6328125" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="5"/>
       <c r="C1" s="32" t="s">
         <v>0</v>
@@ -3475,7 +3462,7 @@
       <c r="D2"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="31" t="s">
         <v>1</v>
@@ -3487,7 +3474,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="34" t="s">
         <v>3</v>
@@ -3533,7 +3520,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="173.25">
+    <row r="9" spans="1:8" ht="156">
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
@@ -3547,7 +3534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="202.8">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3577,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="132.75">
+    <row r="15" spans="1:8" ht="126.6">
       <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
@@ -3673,7 +3660,7 @@
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
@@ -3696,29 +3683,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:Q21"/>
+  <dimension ref="D7:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="17.08984375" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -3753,27 +3741,30 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
         <v>214</v>
       </c>
-      <c r="P7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17">
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
@@ -3791,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3802,19 +3793,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:17">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18">
       <c r="E9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
@@ -3832,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3843,22 +3837,25 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:17">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18">
       <c r="E10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3873,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3884,13 +3881,16 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="4:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
         <v>68</v>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3925,8 +3925,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="4:17">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
       <c r="E12" t="s">
         <v>72</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3966,16 +3969,19 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="4:17">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
       <c r="E13" t="s">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
@@ -4007,13 +4013,16 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="4:17">
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
         <v>76</v>
@@ -4048,8 +4057,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="4:17">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18">
       <c r="E15" t="s">
         <v>78</v>
       </c>
@@ -4089,19 +4101,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="4:17">
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18">
       <c r="E16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>62</v>
@@ -4130,19 +4145,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="5:17">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18">
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
         <v>62</v>
@@ -4171,19 +4189,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:17">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18">
       <c r="E18" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
@@ -4201,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -4212,22 +4233,25 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18">
       <c r="E19" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4242,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4253,91 +4277,12 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="5:17">
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17">
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
+      <c r="R19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D8:N21">
+  <sortState ref="D8:N19">
     <sortCondition descending="1" ref="N8"/>
   </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -4354,46 +4299,46 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="10" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.90625" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" customWidth="1"/>
+    <col min="10" max="10" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4402,20 +4347,20 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4424,18 +4369,18 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4444,18 +4389,18 @@
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4464,38 +4409,38 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4507,35 +4452,35 @@
         <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
       <c r="E15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4544,18 +4489,18 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="4:14">
       <c r="E16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4564,130 +4509,130 @@
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="46.8">
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" ht="47.25">
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4705,18 +4650,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4733,30 +4678,30 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="4:8">
@@ -4764,139 +4709,139 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
         <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4910,63 +4855,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
   <dimension ref="D7:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="25.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="4" customWidth="1"/>
     <col min="6" max="8" width="18" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="30"/>
       <c r="E8" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4975,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -4992,10 +4937,10 @@
     </row>
     <row r="9" spans="4:13">
       <c r="E9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -5004,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -5021,10 +4966,10 @@
     </row>
     <row r="10" spans="4:13">
       <c r="E10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -5033,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -5050,10 +4995,10 @@
     </row>
     <row r="11" spans="4:13">
       <c r="E11" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -5062,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -5079,10 +5024,10 @@
     </row>
     <row r="12" spans="4:13">
       <c r="E12" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -5091,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -5108,10 +5053,10 @@
     </row>
     <row r="13" spans="4:13">
       <c r="E13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -5120,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506FE8B-3A09-49CC-9428-83C77CE86900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12C9B2-B575-4EFA-94C5-A5868D63337A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>168</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:18">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:18">
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
         <v>63</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:18">
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
         <v>63</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:18">
@@ -4646,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\notify-service\src\main\resources\script\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12C9B2-B575-4EFA-94C5-A5868D63337A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="452" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20370" windowHeight="7740" tabRatio="452" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,14 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="205">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -53,7 +47,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -65,7 +59,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -83,7 +77,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -101,7 +95,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -119,7 +113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -129,7 +123,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -147,7 +141,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -166,7 +160,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -184,7 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -195,7 +189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -213,7 +207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -231,7 +225,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -252,7 +246,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -272,7 +266,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -292,7 +286,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -312,7 +306,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -332,7 +326,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -343,7 +337,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -361,7 +355,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -372,7 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -390,7 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -408,7 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -426,7 +420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -444,7 +438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -491,7 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -509,7 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -527,7 +521,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -545,7 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -556,7 +550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -574,7 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -592,7 +586,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -611,7 +605,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -629,7 +623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -648,7 +642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -666,7 +660,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -677,7 +671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -695,7 +689,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -713,7 +707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -736,7 +730,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -754,7 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -772,7 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -790,7 +784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -808,7 +802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -819,7 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -837,7 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -847,7 +841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -867,7 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -877,7 +871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -895,7 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -913,7 +907,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -936,7 +930,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -954,7 +948,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -973,7 +967,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -992,7 +986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1011,7 +1005,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1031,7 +1025,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1050,7 +1044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1084,7 +1078,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1104,7 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1115,7 +1109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1133,7 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1153,7 +1147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1172,7 +1165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1185,7 +1177,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1204,7 +1195,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1223,7 +1213,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1242,7 +1231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1257,7 +1245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1275,7 +1263,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1293,7 +1281,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1311,7 +1299,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1329,7 +1317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1344,7 +1332,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1353,7 +1341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1371,7 +1359,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1386,7 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1395,7 +1383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1413,7 +1401,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1427,7 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1445,7 +1433,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1463,7 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1482,7 +1470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1505,7 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1523,7 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1541,7 +1529,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1560,7 +1548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1580,7 +1568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1590,7 +1578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1599,7 +1587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1610,7 +1598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1628,7 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1646,7 +1634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1664,7 +1652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1683,7 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1701,7 +1689,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1719,7 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1738,7 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1756,7 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1774,7 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1792,7 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1811,7 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1822,7 +1810,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1832,7 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1841,7 +1829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1852,7 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1870,7 +1858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1881,7 +1869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1899,7 +1887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1918,7 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -1957,6 +1945,126 @@
     <t>CATEGORY_CODE</t>
   </si>
   <si>
+    <t>EMAIL_ENABLED_FLAG</t>
+  </si>
+  <si>
+    <t>PM_ENABLED_FLAG</t>
+  </si>
+  <si>
+    <t>SMS_ENABLED_FLAG</t>
+  </si>
+  <si>
+    <t>IS_EDIT</t>
+  </si>
+  <si>
+    <t>jobStatusSite</t>
+  </si>
+  <si>
+    <t>平台任务状态通知</t>
+  </si>
+  <si>
+    <t>定时任务状态发生变化，给相关用户发送通知。</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>sys-management</t>
+  </si>
+  <si>
+    <t>sagaInstanceFail</t>
+  </si>
+  <si>
+    <t>事务实例失败通知</t>
+  </si>
+  <si>
+    <t>当事务实例失败时，向触发者发送消息提醒。</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation</t>
+  </si>
+  <si>
+    <t>资源删除验证码</t>
+  </si>
+  <si>
+    <t>删除Devops资源时，给相关用户发送验证码</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>resource-security-notice</t>
+  </si>
+  <si>
+    <t>enableProject</t>
+  </si>
+  <si>
+    <t>启用项目</t>
+  </si>
+  <si>
+    <t>管理员启用项目</t>
+  </si>
+  <si>
+    <t>pro-management</t>
+  </si>
+  <si>
+    <t>disableProject</t>
+  </si>
+  <si>
+    <t>停用项目</t>
+  </si>
+  <si>
+    <t>管理员停用项目</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>管理员添加/导入成员</t>
+  </si>
+  <si>
+    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>org-management</t>
+  </si>
+  <si>
+    <t>enableOrganization</t>
+  </si>
+  <si>
+    <t>启用组织</t>
+  </si>
+  <si>
+    <t>管理员启用组织</t>
+  </si>
+  <si>
+    <t>disableOrganization</t>
+  </si>
+  <si>
+    <t>停用组织</t>
+  </si>
+  <si>
+    <t>管理员停用组织</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization</t>
+  </si>
+  <si>
+    <t>组织任务状态通知</t>
+  </si>
+  <si>
+    <t>resetOrganizationUserPassword</t>
+  </si>
+  <si>
+    <t>组织重置用户密码</t>
+  </si>
+  <si>
+    <t>组织重置用户密码，给相关用户发送通知</t>
+  </si>
+  <si>
     <t>forgetPassword</t>
   </si>
   <si>
@@ -1966,24 +2074,9 @@
     <t>用户触发忘记密码，发送验证邮件。(LDAP用户不允许重置密码)</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>account-security-notice</t>
   </si>
   <si>
-    <t>addUser</t>
-  </si>
-  <si>
-    <t>管理员添加或导入新用户时，管理员收到添加用户结果的反馈</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>org-management</t>
-  </si>
-  <si>
     <t>modifyPassword</t>
   </si>
   <si>
@@ -1993,97 +2086,13 @@
     <t>用户在平台修改密码后反馈密码修改成功的通知，确认是否是用户的操作</t>
   </si>
   <si>
-    <t>enableProject</t>
-  </si>
-  <si>
-    <t>启用项目</t>
-  </si>
-  <si>
-    <t>管理员启用项目</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>pro-management</t>
-  </si>
-  <si>
-    <t>disableProject</t>
-  </si>
-  <si>
-    <t>停用项目</t>
-  </si>
-  <si>
-    <t>管理员停用项目</t>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-  </si>
-  <si>
-    <t>启用组织</t>
-  </si>
-  <si>
-    <t>管理员启用组织</t>
-  </si>
-  <si>
-    <t>disableOrganization</t>
-  </si>
-  <si>
-    <t>停用组织</t>
-  </si>
-  <si>
-    <t>管理员停用组织</t>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>jobStatusSite</t>
-  </si>
-  <si>
-    <t>平台任务状态通知</t>
-  </si>
-  <si>
-    <t>定时任务状态发生变化，给相关用户发送通知。</t>
-  </si>
-  <si>
-    <t>sys-management</t>
-  </si>
-  <si>
-    <t>jobStatusOrganization</t>
-  </si>
-  <si>
-    <t>组织任务状态通知</t>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>resetOrganizationUserPassword</t>
-  </si>
-  <si>
-    <t>组织重置用户密码</t>
-  </si>
-  <si>
-    <t>组织重置用户密码，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>sagaInstanceFail</t>
-  </si>
-  <si>
-    <t>当事务实例失败时，向触发者发送消息提醒。</t>
-  </si>
-  <si>
-    <t>resourceDeleteConfirmation</t>
-  </si>
-  <si>
-    <t>删除Devops资源时，给相关用户发送验证码</t>
-  </si>
-  <si>
-    <t>resource-security-notice</t>
+    <t>deleteAppService</t>
+  </si>
+  <si>
+    <t>删除应用服务</t>
+  </si>
+  <si>
+    <t>app-service-notice</t>
   </si>
   <si>
     <t>NOTIFY_TEMPLATE</t>
@@ -2382,6 +2391,9 @@
     <t>registerOrganization-preset</t>
   </si>
   <si>
+    <t>registerOrganization</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2400,6 +2412,9 @@
     <t>jobStatusProject-preset</t>
   </si>
   <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
     <t>sagaInstanceFail-preset</t>
   </si>
   <si>
@@ -2409,207 +2424,124 @@
     <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
   </si>
   <si>
+    <t>resourceDeleteConfirmation-preset</t>
+  </si>
+  <si>
+    <t>资源删除验证email</t>
+  </si>
+  <si>
     <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
   </si>
   <si>
+    <t>资源删除验证pm</t>
+  </si>
+  <si>
     <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
   </si>
   <si>
     <t>NOTIFY_SEND_SETTING_CATEGORY</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>其他</t>
   </si>
   <si>
     <t>用户的操作触发的其他类型通知</t>
   </si>
   <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
+  </si>
+  <si>
     <t>register-org-notice</t>
   </si>
   <si>
+    <t>注册组织通知</t>
+  </si>
+  <si>
     <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
   </si>
   <si>
+    <t>组织消息</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>项目消息</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
     <t>issue-status-change-notice</t>
   </si>
   <si>
+    <t>敏捷通知</t>
+  </si>
+  <si>
     <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
   </si>
   <si>
+    <t>应用服务通知</t>
+  </si>
+  <si>
+    <t>应用服务创建失败、启用、停用通知</t>
+  </si>
+  <si>
+    <t>code-management-notice</t>
+  </si>
+  <si>
+    <t>代码管理通知</t>
+  </si>
+  <si>
+    <t>合并请求以及持续集成通知</t>
+  </si>
+  <si>
+    <t>deployment-resources-notice</t>
+  </si>
+  <si>
+    <t>部署资源通知</t>
+  </si>
+  <si>
+    <t>部署实例、网络、域名等资源失败通知</t>
+  </si>
+  <si>
     <t>stream-change-notice</t>
   </si>
   <si>
+    <t>流水线通知</t>
+  </si>
+  <si>
     <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
   </si>
   <si>
+    <t>资源删除验证</t>
+  </si>
+  <si>
     <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
   </si>
   <si>
-    <t>账户安全通知</t>
-  </si>
-  <si>
-    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
-  </si>
-  <si>
-    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
-  </si>
-  <si>
-    <t>项目管理过程中触发的一系列事件的通知</t>
-  </si>
-  <si>
-    <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>app-service-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务创建失败、启用、停用通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>code-management-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并请求以及持续集成通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>deployment-resources-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署资源通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码管理通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>stream-change-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource-security-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon验证邮件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceDeleteConfirmation</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源删除验证pm</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源删除验证email</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceDeleteConfirmation-preset</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册组织通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>register-org-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务实例失败通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源删除验证码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织消息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目消息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys-management</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线通知</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>account-security-notice</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>org-management</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员添加/导入成员</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro-management</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>NOTIFY_MESSAGE_SETTING</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>#NOTIFY_TYPE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PROJECT_ID</t>
+  </si>
+  <si>
+    <t>#ENV_ID</t>
   </si>
   <si>
     <t>#EVENT_NAME</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>PM_ENABLE</t>
@@ -2621,116 +2553,56 @@
     <t>SMS_ENABLE</t>
   </si>
   <si>
+    <t>default-instance</t>
+  </si>
+  <si>
     <t>resourceDelete</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>default-instance</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>instance</t>
   </si>
   <si>
     <t>default-ingress</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ingress</t>
   </si>
   <si>
     <t>default-configMap</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>configMap</t>
   </si>
   <si>
     <t>default-certificate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>certificate</t>
   </si>
   <si>
     <t>default-secret</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>secret</t>
   </si>
   <si>
     <t>default-service</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-  </si>
-  <si>
-    <t>EMAIL_ENABLED_FLAG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_ENABLED_FLAG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS_ENABLED_FLAG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusSite</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>sagaInstanceFail</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableProject</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableOrganization</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobStatusOrganization</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>resetOrganizationUserPassword</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyPassword</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PROJECT_ID</t>
-  </si>
-  <si>
-    <t>#ENV_ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_EDIT</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2739,9 +2611,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2760,14 +2638,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2785,13 +2663,164 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2809,13 +2838,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2827,22 +2856,10 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2873,8 +2890,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2975,9 +3178,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2985,6 +3430,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2994,43 +3445,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3042,7 +3502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3051,50 +3511,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3167,9 +3659,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3427,283 +3916,284 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="100.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="100.633333333333" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="C1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" ht="63.9" customHeight="1" spans="1:8">
+      <c r="A1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" ht="48.9" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.2">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="156">
-      <c r="C9" s="18" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="202.8">
-      <c r="C10" s="21" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="15" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
-      <c r="C12" s="15" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="126.6">
-      <c r="C15" s="23" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="26" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="26" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="26" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="26" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="28" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="16" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.2">
-      <c r="C27" s="29" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.453125" customWidth="1"/>
-    <col min="16" max="16" width="17.08984375" customWidth="1"/>
-    <col min="17" max="17" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="5.725" customWidth="1"/>
+    <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.45" customWidth="1"/>
+    <col min="6" max="6" width="39.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="32.725" customWidth="1"/>
+    <col min="10" max="10" width="14.9083333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.3666666666667" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="14" max="14" width="18.6333333333333" customWidth="1"/>
+    <col min="15" max="15" width="24.5" customWidth="1"/>
+    <col min="16" max="16" width="27.375" customWidth="1"/>
+    <col min="17" max="17" width="20.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
@@ -3741,33 +4231,33 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3782,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3797,21 +4287,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:18">
       <c r="E9" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3826,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3841,21 +4331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="5:18">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3870,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3885,18 +4375,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="5:18">
       <c r="E11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
@@ -3914,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3929,18 +4419,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="5:18">
       <c r="E12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>70</v>
@@ -3958,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3973,153 +4463,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="5:18">
       <c r="E13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18">
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18">
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18">
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18">
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4134,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -4151,19 +4641,19 @@
     </row>
     <row r="17" spans="5:18">
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4178,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -4195,19 +4685,19 @@
     </row>
     <row r="18" spans="5:18">
       <c r="E18" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4222,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -4239,19 +4729,19 @@
     </row>
     <row r="19" spans="5:18">
       <c r="E19" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4266,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4278,390 +4768,436 @@
         <v>0</v>
       </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="D8:N19">
-    <sortCondition descending="1" ref="N8"/>
+    <sortCondition ref="N8" descending="1"/>
   </sortState>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N22"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.9083333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="30.90625" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" customWidth="1"/>
-    <col min="10" max="10" width="69.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.9083333333333" customWidth="1"/>
+    <col min="9" max="9" width="28.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="69.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14">
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
-      <c r="E11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14">
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="17.1" customHeight="1" spans="5:10">
       <c r="E15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
+        <v>135</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
       <c r="E16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" ht="46.8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" ht="47.25" spans="5:10">
       <c r="E20" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H19"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="26.45" customWidth="1"/>
+    <col min="7" max="7" width="18.45" customWidth="1"/>
+    <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4676,413 +5212,414 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F467F3-B0C1-4D8F-A4FA-6B54D0F57297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:M13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="25.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="18" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="25.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="6" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.3666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.725" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.2666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3666666666667" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="8" spans="4:13">
-      <c r="D8" s="30"/>
-      <c r="E8" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13">
-      <c r="E9" s="4" t="s">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
+      <c r="E12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13">
-      <c r="E10" s="4" t="s">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
+      <c r="E13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13">
-      <c r="E11" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13">
-      <c r="E12" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13">
-      <c r="E13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7740" tabRatio="452" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="7740" tabRatio="452" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="208">
   <si>
     <r>
       <rPr>
@@ -2529,6 +2529,15 @@
     <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
   </si>
   <si>
+    <t>add-or-import-user</t>
+  </si>
+  <si>
+    <t>添加/导入用户通知</t>
+  </si>
+  <si>
+    <t>添加或者导入用户的通知</t>
+  </si>
+  <si>
     <t>NOTIFY_MESSAGE_SETTING</t>
   </si>
   <si>
@@ -2598,9 +2607,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2669,6 +2678,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2676,7 +2701,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2694,53 +2719,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2770,9 +2750,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,23 +2781,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2892,114 +2901,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3012,7 +2913,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3030,19 +3045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,13 +3069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3072,7 +3081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,17 +3188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3214,11 +3212,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3240,9 +3262,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3261,69 +3285,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3332,97 +3344,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4175,7 +4184,7 @@
   <sheetPr/>
   <dimension ref="D7:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+    <sheetView topLeftCell="K3" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -5180,10 +5189,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H19"/>
+  <dimension ref="D7:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -5192,7 +5201,7 @@
     <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="26.45" customWidth="1"/>
     <col min="7" max="7" width="18.45" customWidth="1"/>
-    <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
+    <col min="8" max="8" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -5378,6 +5387,20 @@
       </c>
       <c r="H19" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5412,43 +5435,43 @@
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5460,7 +5483,7 @@
         <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -5474,10 +5497,10 @@
     </row>
     <row r="9" spans="5:13">
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5489,7 +5512,7 @@
         <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -5503,10 +5526,10 @@
     </row>
     <row r="10" spans="5:13">
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5518,7 +5541,7 @@
         <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -5532,10 +5555,10 @@
     </row>
     <row r="11" spans="5:13">
       <c r="E11" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5547,7 +5570,7 @@
         <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -5561,10 +5584,10 @@
     </row>
     <row r="12" spans="5:13">
       <c r="E12" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5576,7 +5599,7 @@
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -5590,10 +5613,10 @@
     </row>
     <row r="13" spans="5:13">
       <c r="E13" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5605,7 +5628,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\notify-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCDD0F-A005-418B-9FD3-4335761457ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7740" tabRatio="452" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -47,7 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -59,7 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -77,7 +83,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -95,7 +101,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -113,7 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -123,7 +129,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -141,7 +147,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -160,7 +166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -178,7 +184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -189,7 +195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -207,7 +213,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -225,7 +231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -246,7 +252,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -266,7 +272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -286,7 +292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -306,7 +312,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -326,7 +332,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -337,7 +343,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -355,7 +361,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -366,7 +372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -384,7 +390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -402,7 +408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -420,7 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -438,7 +444,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -485,7 +491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -503,7 +509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -521,7 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -539,7 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -550,7 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -568,7 +574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -586,7 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -605,7 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -623,7 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -642,7 +648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -660,7 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -671,7 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -689,7 +695,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -707,7 +713,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -730,7 +736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -748,7 +754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -766,7 +772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -784,7 +790,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -802,7 +808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -813,7 +819,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -831,7 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -841,7 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -861,7 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -871,7 +877,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -889,7 +895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -907,7 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -930,7 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -948,7 +954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -967,7 +973,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -986,7 +992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1005,7 +1011,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1025,7 +1031,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1044,7 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1078,7 +1084,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1098,7 +1104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1109,7 +1115,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1127,7 +1133,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1147,6 +1153,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1165,6 +1172,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1177,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1195,6 +1204,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1213,6 +1223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1231,6 +1242,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1245,7 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1263,7 +1275,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1281,7 +1293,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1299,7 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1317,7 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1332,7 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1341,7 +1353,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1359,7 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1374,7 +1386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1383,7 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1401,7 +1413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1415,7 +1427,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1433,7 +1445,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1451,7 +1463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1470,7 +1482,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1493,7 +1505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1511,7 +1523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1529,7 +1541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1548,7 +1560,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1568,7 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1578,7 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1587,7 +1599,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1598,7 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1616,7 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1634,7 +1646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1652,7 +1664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1671,7 +1683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1689,7 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1707,7 +1719,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1726,7 +1738,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1744,7 +1756,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1762,7 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1780,7 +1792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1799,7 +1811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1810,7 +1822,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1820,7 +1832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1829,7 +1841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1840,7 +1852,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1858,7 +1870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1869,7 +1881,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1887,7 +1899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1906,7 +1918,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2186,6 +2198,219 @@
   </si>
   <si>
     <t>choerodon验证邮件</t>
+  </si>
+  <si>
+    <t>registerOrganization-preset</t>
+  </si>
+  <si>
+    <t>registerOrganization</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>jobStatusSite-preset</t>
+  </si>
+  <si>
+    <t>${jobName}状态发生变更</t>
+  </si>
+  <si>
+    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
+  </si>
+  <si>
+    <t>jobStatusOrganization-preset</t>
+  </si>
+  <si>
+    <t>jobStatusProject-preset</t>
+  </si>
+  <si>
+    <t>jobStatusProject</t>
+  </si>
+  <si>
+    <t>sagaInstanceFail-preset</t>
+  </si>
+  <si>
+    <t>事务实例失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>resourceDeleteConfirmation-preset</t>
+  </si>
+  <si>
+    <t>资源删除验证email</t>
+  </si>
+  <si>
+    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
+  </si>
+  <si>
+    <t>资源删除验证pm</t>
+  </si>
+  <si>
+    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
+  </si>
+  <si>
+    <t>NOTIFY_SEND_SETTING_CATEGORY</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用户的操作触发的其他类型通知</t>
+  </si>
+  <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
+  </si>
+  <si>
+    <t>register-org-notice</t>
+  </si>
+  <si>
+    <t>注册组织通知</t>
+  </si>
+  <si>
+    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
+  </si>
+  <si>
+    <t>组织消息</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>项目消息</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
+    <t>issue-status-change-notice</t>
+  </si>
+  <si>
+    <t>敏捷通知</t>
+  </si>
+  <si>
+    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+  </si>
+  <si>
+    <t>应用服务通知</t>
+  </si>
+  <si>
+    <t>应用服务创建失败、启用、停用通知</t>
+  </si>
+  <si>
+    <t>code-management-notice</t>
+  </si>
+  <si>
+    <t>代码管理通知</t>
+  </si>
+  <si>
+    <t>合并请求以及持续集成通知</t>
+  </si>
+  <si>
+    <t>deployment-resources-notice</t>
+  </si>
+  <si>
+    <t>部署资源通知</t>
+  </si>
+  <si>
+    <t>部署实例、网络、域名等资源失败通知</t>
+  </si>
+  <si>
+    <t>stream-change-notice</t>
+  </si>
+  <si>
+    <t>流水线通知</t>
+  </si>
+  <si>
+    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
+  </si>
+  <si>
+    <t>资源删除验证</t>
+  </si>
+  <si>
+    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
+  </si>
+  <si>
+    <t>add-or-import-user</t>
+  </si>
+  <si>
+    <t>添加/导入用户通知</t>
+  </si>
+  <si>
+    <t>添加或者导入用户的通知</t>
+  </si>
+  <si>
+    <t>NOTIFY_MESSAGE_SETTING</t>
+  </si>
+  <si>
+    <t>#NOTIFY_TYPE</t>
+  </si>
+  <si>
+    <t>#PROJECT_ID</t>
+  </si>
+  <si>
+    <t>#ENV_ID</t>
+  </si>
+  <si>
+    <t>#EVENT_NAME</t>
+  </si>
+  <si>
+    <t>PM_ENABLE</t>
+  </si>
+  <si>
+    <t>EMAIL_ENABLE</t>
+  </si>
+  <si>
+    <t>SMS_ENABLE</t>
+  </si>
+  <si>
+    <t>default-instance</t>
+  </si>
+  <si>
+    <t>resourceDelete</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>default-ingress</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>default-configMap</t>
+  </si>
+  <si>
+    <t>configMap</t>
+  </si>
+  <si>
+    <t>default-certificate</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>default-secret</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>default-service</t>
+  </si>
+  <si>
+    <t>service</t>
   </si>
   <si>
     <t>&lt;!doctype html&gt;
@@ -2233,6 +2458,16 @@
     p {
       display: block;
       margin: 13px 0;
+    }
+    .button {
+      background-color: #008CBA; /* Blue */
+      border: none;
+      color: white;
+      padding: 15px 32px;
+      text-align: center;
+      text-decoration: none;
+      display: inline-block;
+      font-size: 16px;
     }
   &lt;/style&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
@@ -2328,9 +2563,8 @@
                       &lt;div style="padding: 68px 40px;border: 1px solid #E6E6E6;border-bottom: 0;border-top: 0;border-radius: 2px;background: #FFFFFF;"&gt;
                         &lt;div&gt;
                           &lt;p style="margin-top: 0"&gt;亲爱的${userName}，您好！&lt;/p&gt;
-                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，您用于找回密码的验证码为：&lt;/p&gt;
-                          &lt;p style="text-align: center; margin-top: 18px; margin-bottom: 18px; line-height: 24px; font-size: 24px"&gt;${verifyCode}&lt;/p&gt;
-                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;此验证码10分钟内有效，为了保障您的账户安全，请不要泄漏给他人。&lt;/p&gt;
+                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，，点击下方的“重置密码”按钮，即可跳转至密码修改界面。此链接30分钟内有效。&lt;/p&gt;
+                          &lt;a href="${redirectUrl}" style="text-decoration:none;" class="button"&gt;重置密码&lt;/a&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div&gt;
@@ -2386,232 +2620,14 @@
 &lt;/div&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>registerOrganization-preset</t>
-  </si>
-  <si>
-    <t>registerOrganization</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;img src="https://file.choerodon.com.cn/static/c7nlogo.jpg"&gt;&lt;/p&gt;&lt;p&gt;亲爱的用户，您好！&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&amp;nbsp;&amp;nbsp;欢迎使用Choerodon平台，您正在进行邮箱验证，本次请求的验证码为&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;strong style="font-size: 18px; color: rgb(0, 71, 178);"&gt;&amp;nbsp;&amp;nbsp;${captcha}&lt;/strong&gt;&lt;span style="color: rgb(136, 136, 136);"&gt;（为了保障您的账户安全，请在${timeout}分钟内完成验证。）&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Thanks，&lt;/p&gt;&lt;p style="text-align: justify;"&gt;Choerodon&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;此邮件为系统邮件，请勿回复。如需了解更多信息，请访问&lt;a href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或&lt;a href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。您也可以通过以下方式联系我们：&lt;/p&gt;&lt;p style="text-align: justify;"&gt;&lt;img src="https://file.choerodon.com.cn/static/sina.png"&gt;&lt;img src="https://file.choerodon.com.cn/static/wechat.png"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>jobStatusSite-preset</t>
-  </si>
-  <si>
-    <t>${jobName}状态发生变更</t>
-  </si>
-  <si>
-    <t>您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。</t>
-  </si>
-  <si>
-    <t>jobStatusOrganization-preset</t>
-  </si>
-  <si>
-    <t>jobStatusProject-preset</t>
-  </si>
-  <si>
-    <t>jobStatusProject</t>
-  </si>
-  <si>
-    <t>sagaInstanceFail-preset</t>
-  </si>
-  <si>
-    <t>事务实例失败</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>resourceDeleteConfirmation-preset</t>
-  </si>
-  <si>
-    <t>资源删除验证email</t>
-  </si>
-  <si>
-    <t>您好，${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码10分钟内有效。</t>
-  </si>
-  <si>
-    <t>资源删除验证pm</t>
-  </si>
-  <si>
-    <t>${user}正在${env}环境下执行删除${object}"${objectName}"的操作，验证码为：${captcha}；确认后，需将此验证码提供给操作者${user}完成删除操作。验证码11分钟内有效。</t>
-  </si>
-  <si>
-    <t>NOTIFY_SEND_SETTING_CATEGORY</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>用户的操作触发的其他类型通知</t>
-  </si>
-  <si>
-    <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>账户安全通知</t>
-  </si>
-  <si>
-    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
-  </si>
-  <si>
-    <t>register-org-notice</t>
-  </si>
-  <si>
-    <t>注册组织通知</t>
-  </si>
-  <si>
-    <t>包括注册审批，以及注册用户消息提醒，异常处理通知</t>
-  </si>
-  <si>
-    <t>组织消息</t>
-  </si>
-  <si>
-    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
-  </si>
-  <si>
-    <t>项目消息</t>
-  </si>
-  <si>
-    <t>项目管理过程中触发的一系列事件的通知</t>
-  </si>
-  <si>
-    <t>issue-status-change-notice</t>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
-  </si>
-  <si>
-    <t>应用服务通知</t>
-  </si>
-  <si>
-    <t>应用服务创建失败、启用、停用通知</t>
-  </si>
-  <si>
-    <t>code-management-notice</t>
-  </si>
-  <si>
-    <t>代码管理通知</t>
-  </si>
-  <si>
-    <t>合并请求以及持续集成通知</t>
-  </si>
-  <si>
-    <t>deployment-resources-notice</t>
-  </si>
-  <si>
-    <t>部署资源通知</t>
-  </si>
-  <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
-  </si>
-  <si>
-    <t>stream-change-notice</t>
-  </si>
-  <si>
-    <t>流水线通知</t>
-  </si>
-  <si>
-    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-  </si>
-  <si>
-    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
-  </si>
-  <si>
-    <t>add-or-import-user</t>
-  </si>
-  <si>
-    <t>添加/导入用户通知</t>
-  </si>
-  <si>
-    <t>添加或者导入用户的通知</t>
-  </si>
-  <si>
-    <t>NOTIFY_MESSAGE_SETTING</t>
-  </si>
-  <si>
-    <t>#NOTIFY_TYPE</t>
-  </si>
-  <si>
-    <t>#PROJECT_ID</t>
-  </si>
-  <si>
-    <t>#ENV_ID</t>
-  </si>
-  <si>
-    <t>#EVENT_NAME</t>
-  </si>
-  <si>
-    <t>PM_ENABLE</t>
-  </si>
-  <si>
-    <t>EMAIL_ENABLE</t>
-  </si>
-  <si>
-    <t>SMS_ENABLE</t>
-  </si>
-  <si>
-    <t>default-instance</t>
-  </si>
-  <si>
-    <t>resourceDelete</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>default-ingress</t>
-  </si>
-  <si>
-    <t>ingress</t>
-  </si>
-  <si>
-    <t>default-configMap</t>
-  </si>
-  <si>
-    <t>configMap</t>
-  </si>
-  <si>
-    <t>default-certificate</t>
-  </si>
-  <si>
-    <t>certificate</t>
-  </si>
-  <si>
-    <t>default-secret</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>default-service</t>
-  </si>
-  <si>
-    <t>service</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2628,7 +2644,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2647,14 +2663,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2672,164 +2688,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2847,13 +2712,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2865,10 +2730,16 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2899,194 +2770,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3187,251 +2872,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3457,23 +2900,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3529,9 +2960,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3544,58 +2972,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3668,6 +3064,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3925,263 +3324,262 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="100.633333333333" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.9" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="48.9" customHeight="1" spans="1:7">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="173.25">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:8" ht="204.75">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="1:8" ht="47.25">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="132.75">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="16" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="32" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="32" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="32" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="32" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.5">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:R20"/>
   <sheetViews>
     <sheetView topLeftCell="K3" workbookViewId="0">
@@ -4190,19 +3588,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="5.725" customWidth="1"/>
-    <col min="4" max="4" width="16.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.45" customWidth="1"/>
-    <col min="6" max="6" width="39.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.3666666666667" customWidth="1"/>
-    <col min="8" max="8" width="32.725" customWidth="1"/>
-    <col min="10" max="10" width="14.9083333333333" customWidth="1"/>
-    <col min="11" max="11" width="20.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="14" max="14" width="18.6333333333333" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
     <col min="16" max="16" width="27.375" customWidth="1"/>
-    <col min="17" max="17" width="20.9083333333333" customWidth="1"/>
+    <col min="17" max="17" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
@@ -4252,7 +3650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="4:18">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -4296,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:18">
+    <row r="9" spans="4:18">
       <c r="E9" t="s">
         <v>64</v>
       </c>
@@ -4340,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:18">
+    <row r="10" spans="4:18">
       <c r="E10" t="s">
         <v>67</v>
       </c>
@@ -4384,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:18">
+    <row r="11" spans="4:18">
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -4428,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:18">
+    <row r="12" spans="4:18">
       <c r="E12" t="s">
         <v>76</v>
       </c>
@@ -4472,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:18">
+    <row r="13" spans="4:18">
       <c r="E13" t="s">
         <v>79</v>
       </c>
@@ -4516,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:18">
+    <row r="14" spans="4:18">
       <c r="E14" t="s">
         <v>84</v>
       </c>
@@ -4560,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:18">
+    <row r="15" spans="4:18">
       <c r="E15" t="s">
         <v>87</v>
       </c>
@@ -4604,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:18">
+    <row r="16" spans="4:18">
       <c r="E16" t="s">
         <v>90</v>
       </c>
@@ -4826,35 +4224,34 @@
     </row>
   </sheetData>
   <sortState ref="D8:N19">
-    <sortCondition ref="N8" descending="1"/>
+    <sortCondition descending="1" ref="N8"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="18.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="19.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="22.9083333333333" customWidth="1"/>
-    <col min="8" max="8" width="30.9083333333333" customWidth="1"/>
-    <col min="9" max="9" width="28.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="69.45" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="30.875" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
         <v>105</v>
       </c>
@@ -4877,7 +4274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>111</v>
       </c>
@@ -4899,7 +4296,7 @@
       <c r="L8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="5:10">
+    <row r="9" spans="4:14">
       <c r="E9" t="s">
         <v>115</v>
       </c>
@@ -4919,7 +4316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="4:14">
       <c r="E10" t="s">
         <v>118</v>
       </c>
@@ -4939,7 +4336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="4:14">
       <c r="E11" t="s">
         <v>121</v>
       </c>
@@ -4959,7 +4356,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="4:14">
       <c r="E12" t="s">
         <v>124</v>
       </c>
@@ -4979,7 +4376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="5:10">
+    <row r="13" spans="4:14">
       <c r="E13" t="s">
         <v>127</v>
       </c>
@@ -4999,7 +4396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="5:10">
+    <row r="14" spans="4:14">
       <c r="E14" t="s">
         <v>129</v>
       </c>
@@ -5019,7 +4416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" ht="17.1" customHeight="1" spans="5:10">
+    <row r="15" spans="4:14" ht="17.100000000000001" customHeight="1">
       <c r="E15" t="s">
         <v>133</v>
       </c>
@@ -5036,12 +4433,12 @@
         <v>135</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14">
+      <c r="E16" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10">
-      <c r="E16" t="s">
-        <v>137</v>
       </c>
       <c r="F16" t="s">
         <v>134</v>
@@ -5050,18 +4447,18 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
         <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -5073,15 +4470,15 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
         <v>141</v>
-      </c>
-      <c r="J17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -5093,15 +4490,15 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
         <v>141</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -5110,18 +4507,18 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="47.25">
+      <c r="E20" t="s">
         <v>145</v>
-      </c>
-      <c r="I19" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" ht="47.25" spans="5:10">
-      <c r="E20" t="s">
-        <v>146</v>
       </c>
       <c r="F20" t="s">
         <v>112</v>
@@ -5133,15 +4530,15 @@
         <v>64</v>
       </c>
       <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
         <v>134</v>
@@ -5153,15 +4550,15 @@
         <v>67</v>
       </c>
       <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
         <v>150</v>
-      </c>
-      <c r="J21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
         <v>112</v>
@@ -5173,40 +4570,39 @@
         <v>67</v>
       </c>
       <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
         <v>152</v>
       </c>
-      <c r="J22" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="32.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="25.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="26.45" customWidth="1"/>
-    <col min="7" max="7" width="18.45" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5221,21 +4617,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
         <v>155</v>
       </c>
-      <c r="F8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>156</v>
       </c>
-      <c r="H8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8">
+    </row>
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>63</v>
       </c>
@@ -5246,10 +4642,10 @@
         <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>98</v>
       </c>
@@ -5257,27 +4653,27 @@
         <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
         <v>159</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="5:8">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" t="s">
         <v>161</v>
       </c>
-      <c r="F11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>162</v>
       </c>
-      <c r="H11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8">
+    </row>
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>83</v>
       </c>
@@ -5285,13 +4681,13 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
         <v>164</v>
       </c>
-      <c r="H12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8">
+    </row>
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>75</v>
       </c>
@@ -5299,27 +4695,27 @@
         <v>75</v>
       </c>
       <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
         <v>166</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" t="s">
         <v>168</v>
       </c>
-      <c r="F14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>169</v>
       </c>
-      <c r="H14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8">
+    </row>
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>104</v>
       </c>
@@ -5327,52 +4723,52 @@
         <v>104</v>
       </c>
       <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
         <v>171</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="4:8">
+      <c r="E16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="5:8">
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
         <v>173</v>
       </c>
-      <c r="F16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>174</v>
-      </c>
-      <c r="H16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
         <v>176</v>
       </c>
-      <c r="F17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>177</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
         <v>179</v>
       </c>
-      <c r="F18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>180</v>
-      </c>
-      <c r="H18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -5383,36 +4779,35 @@
         <v>71</v>
       </c>
       <c r="G19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" t="s">
         <v>182</v>
-      </c>
-      <c r="H19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
         <v>184</v>
       </c>
-      <c r="F20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>185</v>
       </c>
-      <c r="H20" t="s">
-        <v>186</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5422,56 +4817,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="25.6333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.3666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.725" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.2666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5483,24 +4878,24 @@
         <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="E9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5512,24 +4907,24 @@
         <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="E10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5541,24 +4936,24 @@
         <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
+      <c r="E11" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5570,24 +4965,24 @@
         <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="E12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5599,24 +4994,24 @@
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="E13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13">
-      <c r="E13" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5628,7 +5023,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -5641,8 +5036,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCDD0F-A005-418B-9FD3-4335761457ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD33E1-D78E-43C8-B743-8E0533F289C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2563,7 +2563,7 @@
                       &lt;div style="padding: 68px 40px;border: 1px solid #E6E6E6;border-bottom: 0;border-top: 0;border-radius: 2px;background: #FFFFFF;"&gt;
                         &lt;div&gt;
                           &lt;p style="margin-top: 0"&gt;亲爱的${userName}，您好！&lt;/p&gt;
-                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，，点击下方的“重置密码”按钮，即可跳转至密码修改界面。此链接30分钟内有效。&lt;/p&gt;
+                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，点击下方的“重置密码”按钮，即可跳转至密码修改界面。此链接30分钟内有效。&lt;/p&gt;
                           &lt;a href="${redirectUrl}" style="text-decoration:none;" class="button"&gt;重置密码&lt;/a&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
@@ -2972,11 +2972,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3345,11 +3345,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
       <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
@@ -3543,19 +3543,19 @@
       <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="30" t="s">
@@ -4236,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-08-28-init-data.xlsx
+++ b/src/main/resources/script/db/2018-08-28-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\notify-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD33E1-D78E-43C8-B743-8E0533F289C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D387D4-1ACA-4DA0-939F-87E48788F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="452" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
     <sheet name="NOTIFY_TEMPLATE" sheetId="19" r:id="rId3"/>
     <sheet name="NOTIFY_SEND_SETTING_CATEGORY" sheetId="20" r:id="rId4"/>
     <sheet name="NOTIFY_MESSAGE_SETTING" sheetId="21" r:id="rId5"/>
+    <sheet name="notify_message_setting_target" sheetId="22" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="216">
   <si>
     <r>
       <rPr>
@@ -2622,12 +2631,41 @@
 &lt;/html&gt;</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>notify_message_setting_target</t>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#user_id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MESSAGE_SETTING_ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectOwner</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2737,6 +2775,12 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2878,7 +2922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2971,6 +3015,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3332,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3345,11 +3395,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="C1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3361,22 +3411,22 @@
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3498,11 +3548,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="27" t="s">
@@ -3543,19 +3593,19 @@
       <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="30" t="s">
@@ -4236,7 +4286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView topLeftCell="H13" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -4810,7 +4860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5040,4 +5090,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE81157-F4D0-4509-98E1-B49876CCC686}">
+  <dimension ref="D7:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="50.25" style="32" customWidth="1"/>
+    <col min="9" max="10" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E8</f>
+        <v>default-instance</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E9</f>
+        <v>default-ingress</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E13</f>
+        <v>default-service</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E10</f>
+        <v>default-configMap</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E12</f>
+        <v>default-secret</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f>NOTIFY_MESSAGE_SETTING!E11</f>
+        <v>default-certificate</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>